--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -86,20 +86,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,16 +105,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,79 +149,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,19 +242,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,163 +410,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,6 +446,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -460,13 +475,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,36 +514,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -527,9 +525,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,133 +553,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1100,9 +1100,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>43429</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -75,15 +75,38 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -97,8 +120,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,8 +142,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -134,28 +202,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -164,17 +210,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,45 +220,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,19 +242,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,163 +404,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,16 +446,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,6 +480,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,30 +523,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -541,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,133 +553,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1100,15 +1100,39 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>43429</v>
       </c>
       <c r="B3" s="2">
         <v>0.479166666666667</v>
       </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
       <c r="D3">
         <v>0</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>Date</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>全新安装CentOS7.5 与优化.doc 完成CentOS7模板机器制作</t>
+  </si>
+  <si>
+    <t>完成990页文档优化</t>
+  </si>
+  <si>
+    <t>完成视频下载</t>
   </si>
   <si>
     <t>本周总结</t>
@@ -75,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -90,15 +96,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,127 +238,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -242,19 +248,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,25 +314,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,19 +326,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,7 +356,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,13 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,61 +392,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,11 +442,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,38 +484,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,6 +524,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -541,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,19 +559,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,112 +580,112 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1021,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1100,7 +1106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>43429</v>
       </c>
@@ -1134,10 +1140,46 @@
       <c r="K3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>43430</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -1172,23 +1214,23 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="13:13">
       <c r="M12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>Date</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>完成视频下载</t>
+  </si>
+  <si>
+    <t>进行shell部分学习</t>
   </si>
   <si>
     <t>本周总结</t>
@@ -82,9 +85,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -96,6 +99,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -109,24 +119,79 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,28 +199,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,7 +227,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -199,45 +241,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -248,13 +251,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,169 +335,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,6 +442,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,8 +513,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,58 +537,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,19 +562,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,112 +583,112 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1021,7 +1024,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1182,9 +1185,42 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>43431</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.326388888888889</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1214,23 +1250,23 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="13:13">
       <c r="M12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>Date</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>进行shell部分学习</t>
+  </si>
+  <si>
+    <t>踏实</t>
   </si>
   <si>
     <t>本周总结</t>
@@ -84,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -99,52 +102,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,16 +145,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -175,38 +208,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,6 +229,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -235,10 +238,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -251,187 +254,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,13 +448,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,21 +487,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -506,15 +498,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,6 +525,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +565,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,7 +1027,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1223,9 +1226,42 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>43432</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.326388888888889</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -1250,23 +1286,23 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="13:13">
       <c r="M12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>Date</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>踏实</t>
+  </si>
+  <si>
+    <t>下载MySQLPDF，github写menu</t>
+  </si>
+  <si>
+    <t>MySQL PDF OCR</t>
   </si>
   <si>
     <t>本周总结</t>
@@ -87,9 +93,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -101,6 +107,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -110,28 +124,74 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,8 +205,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,86 +236,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,19 +260,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,157 +374,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,6 +451,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -473,36 +538,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -516,35 +551,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -553,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,34 +571,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,97 +610,94 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1027,7 +1033,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1264,14 +1270,50 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>43433</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" s="2">
+        <v>0.319444444444444</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>43434</v>
+      </c>
+      <c r="M8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -1286,23 +1328,23 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="13:13">
       <c r="M12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>Date</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>MySQL PDF OCR</t>
+  </si>
+  <si>
+    <t>准备学习马哥视频2018</t>
   </si>
   <si>
     <t>本周总结</t>
@@ -93,9 +96,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -107,91 +110,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,9 +155,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,23 +224,31 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,109 +263,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,73 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,6 +454,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,11 +481,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,28 +505,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,22 +539,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,10 +562,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,133 +574,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,7 +1036,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1312,13 +1315,46 @@
       <c r="A8" s="1">
         <v>43434</v>
       </c>
+      <c r="B8" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
       <c r="M8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>43435</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -1328,23 +1364,23 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="13:13">
       <c r="M12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>Date</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>准备学习马哥视频2018</t>
+  </si>
+  <si>
+    <t>制作最新的技术书的目录上传Github</t>
   </si>
   <si>
     <t>本周总结</t>
@@ -96,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -111,19 +114,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -141,7 +182,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,15 +241,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,83 +256,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -263,187 +266,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,26 +460,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,47 +526,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,6 +542,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -562,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,7 +1039,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1353,34 +1356,67 @@
       <c r="A9" s="1">
         <v>43435</v>
       </c>
+      <c r="B9" s="2">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
       <c r="M9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>43436</v>
       </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="13:13">
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20685" windowHeight="10530"/>
+    <workbookView windowWidth="12150" windowHeight="7095"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>Date</t>
   </si>
@@ -82,9 +82,15 @@
     <t>本周总结</t>
   </si>
   <si>
+    <t>学习MySQL运维DBA体系</t>
+  </si>
+  <si>
     <t>计划完成老男孩qq群 文档整理工作</t>
   </si>
   <si>
+    <t>整理部分资料</t>
+  </si>
+  <si>
     <t>要求把所有文件 转至 Github</t>
   </si>
   <si>
@@ -92,6 +98,12 @@
   </si>
   <si>
     <t>计划接近完成MySQLDBA课程</t>
+  </si>
+  <si>
+    <t>预定了明年老男孩脱产班</t>
+  </si>
+  <si>
+    <t>获取书签，将书签的要点做到</t>
   </si>
 </sst>
 </file>
@@ -99,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -120,8 +132,130 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,128 +268,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -272,13 +284,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,25 +392,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,133 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,25 +473,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,36 +511,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -557,6 +534,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +589,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,8 +1050,8 @@
   <sheetPr/>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1394,6 +1406,36 @@
       <c r="A10" s="1">
         <v>43436</v>
       </c>
+      <c r="B10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
       <c r="M10" t="s">
         <v>20</v>
       </c>
@@ -1402,26 +1444,72 @@
       <c r="A11" t="s">
         <v>21</v>
       </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
       <c r="M11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="13:13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
       <c r="M12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>43437</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.343055555555556</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>30</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12150" windowHeight="7095"/>
+    <workbookView windowWidth="25605" windowHeight="7095"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>Date</t>
   </si>
@@ -52,9 +52,15 @@
     <t>明日计划目标</t>
   </si>
   <si>
+    <t>commit</t>
+  </si>
+  <si>
     <t>全新安装CentOS7.5 与优化.doc 完成CentOS7模板机器制作</t>
   </si>
   <si>
+    <t>计划达成</t>
+  </si>
+  <si>
     <t>完成990页文档优化</t>
   </si>
   <si>
@@ -64,18 +70,30 @@
     <t>进行shell部分学习</t>
   </si>
   <si>
+    <t>暂缓</t>
+  </si>
+  <si>
     <t>踏实</t>
   </si>
   <si>
+    <t>不可描述</t>
+  </si>
+  <si>
     <t>下载MySQLPDF，github写menu</t>
   </si>
   <si>
     <t>MySQL PDF OCR</t>
   </si>
   <si>
+    <t>由于项目过多，此计划废除</t>
+  </si>
+  <si>
     <t>准备学习马哥视频2018</t>
   </si>
   <si>
+    <t>搁置</t>
+  </si>
+  <si>
     <t>制作最新的技术书的目录上传Github</t>
   </si>
   <si>
@@ -97,13 +115,22 @@
     <t>本月总结</t>
   </si>
   <si>
-    <t>计划接近完成MySQLDBA课程</t>
-  </si>
-  <si>
     <t>预定了明年老男孩脱产班</t>
   </si>
   <si>
+    <t>计划完成MySQLDBA121314Pro课程</t>
+  </si>
+  <si>
     <t>获取书签，将书签的要点做到</t>
+  </si>
+  <si>
+    <t>将老男孩的所有soft上传至GitHub</t>
+  </si>
+  <si>
+    <t>由于yw19期内的MySQL内容学习完毕，需要补学dba_skill121314与dba_pro中的内容</t>
+  </si>
+  <si>
+    <t>memcached课程搁置</t>
   </si>
 </sst>
 </file>
@@ -112,9 +139,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -126,7 +153,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,31 +218,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,6 +242,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -191,83 +295,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -278,19 +305,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,73 +467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,85 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,6 +496,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -490,8 +526,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,15 +543,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,6 +573,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -560,15 +596,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -577,10 +604,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,133 +616,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,19 +1075,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="13" max="13" width="54.125" customWidth="1"/>
+    <col min="13" max="13" width="65.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1097,8 +1124,11 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>43428</v>
       </c>
@@ -1133,10 +1163,13 @@
         <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>43429</v>
       </c>
@@ -1171,10 +1204,13 @@
         <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>43430</v>
       </c>
@@ -1209,10 +1245,13 @@
         <v>6</v>
       </c>
       <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>43431</v>
       </c>
@@ -1247,10 +1286,13 @@
         <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>17</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>43432</v>
       </c>
@@ -1285,10 +1327,13 @@
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>43433</v>
       </c>
@@ -1323,10 +1368,13 @@
         <v>7</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>21</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>43434</v>
       </c>
@@ -1361,10 +1409,13 @@
         <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>43435</v>
       </c>
@@ -1399,7 +1450,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1437,47 +1491,56 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
       <c r="B15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
+        <v>33</v>
+      </c>
+      <c r="M15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
       <c r="B16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="M16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>43437</v>
       </c>
@@ -1511,10 +1574,49 @@
       <c r="K19">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="M19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>43438</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="M20" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>Date</t>
   </si>
@@ -127,10 +127,19 @@
     <t>将老男孩的所有soft上传至GitHub</t>
   </si>
   <si>
+    <t>学习大规模Linux集群架构最佳实践：如何管理上千台服务器</t>
+  </si>
+  <si>
     <t>由于yw19期内的MySQL内容学习完毕，需要补学dba_skill121314与dba_pro中的内容</t>
   </si>
   <si>
+    <t>121314搁置</t>
+  </si>
+  <si>
     <t>memcached课程搁置</t>
+  </si>
+  <si>
+    <t>完成新书目录整理</t>
   </si>
 </sst>
 </file>
@@ -138,9 +147,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -153,7 +162,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,6 +191,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -176,35 +252,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,84 +304,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -305,6 +314,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -317,7 +380,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,157 +482,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,15 +505,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -525,9 +525,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,32 +597,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -581,21 +605,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -604,10 +613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,133 +625,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,7 +1087,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1540,7 +1549,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>43437</v>
       </c>
@@ -1575,7 +1589,10 @@
         <v>7</v>
       </c>
       <c r="M19" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="N19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1613,15 +1630,51 @@
         <v>6</v>
       </c>
       <c r="M20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>43439</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.342361111111111</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>6</v>
+      </c>
+      <c r="M21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25605" windowHeight="7095"/>
+    <workbookView windowWidth="25605" windowHeight="11250"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>Date</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>完成新书目录整理</t>
+  </si>
+  <si>
+    <t>架构师14</t>
+  </si>
+  <si>
+    <t>计划启动</t>
+  </si>
+  <si>
+    <t>准备蹭饭</t>
   </si>
 </sst>
 </file>
@@ -147,8 +156,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -169,7 +178,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,75 +300,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,37 +313,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -314,13 +323,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,25 +401,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,139 +497,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,10 +534,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -543,41 +550,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,6 +584,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -613,10 +622,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,133 +634,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1086,8 +1095,8 @@
   <sheetPr/>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1656,7 +1665,7 @@
         <v>6</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H21">
         <v>20</v>
@@ -1677,14 +1686,83 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>43440</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="2">
+        <v>0.344444444444444</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="M22" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>43441</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>60</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="M23" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25605" windowHeight="11250"/>
+    <workbookView windowWidth="17115" windowHeight="11250"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>Date</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>准备蹭饭</t>
+  </si>
+  <si>
+    <t>蹭饭成功</t>
   </si>
 </sst>
 </file>
@@ -156,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -171,36 +174,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,24 +194,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,16 +219,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,8 +271,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,6 +294,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -323,25 +326,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,144 +500,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -498,12 +507,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,6 +517,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -532,31 +555,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,30 +585,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -614,6 +599,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -622,10 +625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,133 +637,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,8 +1098,8 @@
   <sheetPr/>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1727,7 +1730,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>43441</v>
       </c>
@@ -1764,10 +1767,28 @@
       <c r="M23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="N23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>43442</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17115" windowHeight="11250"/>
+    <workbookView windowWidth="12975" windowHeight="11250"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>Date</t>
   </si>
@@ -152,6 +152,18 @@
   </si>
   <si>
     <t>蹭饭成功</t>
+  </si>
+  <si>
+    <t>研究如何渡过倦怠期</t>
+  </si>
+  <si>
+    <t>设立明确目标</t>
+  </si>
+  <si>
+    <t>下载架构师15</t>
+  </si>
+  <si>
+    <t>文档不完整</t>
   </si>
 </sst>
 </file>
@@ -174,14 +186,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,60 +223,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,22 +247,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -297,6 +255,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -304,7 +286,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,6 +298,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -326,187 +338,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,11 +534,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,6 +546,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,17 +580,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,16 +607,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,15 +629,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -625,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,133 +649,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,8 +1110,8 @@
   <sheetPr/>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1771,7 +1783,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>43442</v>
       </c>
@@ -1787,13 +1799,70 @@
       <c r="E24">
         <v>0</v>
       </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
       <c r="K24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="M24" t="s">
+        <v>46</v>
+      </c>
+      <c r="N24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>43443</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12975" windowHeight="11250"/>
+    <workbookView windowWidth="19260" windowHeight="11250"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -171,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -186,14 +186,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,15 +244,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,6 +271,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,14 +308,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -263,22 +316,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -286,44 +323,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,37 +338,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,145 +506,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,17 +535,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,6 +567,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,32 +612,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,133 +649,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,8 +1110,8 @@
   <sheetPr/>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1865,14 +1865,74 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>43444</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>43445</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.326388888888889</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19260" windowHeight="11250"/>
+    <workbookView windowWidth="24450" windowHeight="11250"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>Date</t>
   </si>
@@ -164,6 +164,15 @@
   </si>
   <si>
     <t>文档不完整</t>
+  </si>
+  <si>
+    <t>整理新书</t>
+  </si>
+  <si>
+    <t>下载新书</t>
+  </si>
+  <si>
+    <t>整理文档</t>
   </si>
 </sst>
 </file>
@@ -172,9 +181,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -186,7 +195,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,7 +231,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,16 +259,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,14 +272,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,21 +293,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,17 +317,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,187 +347,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,15 +551,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -571,32 +595,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,145 +646,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1111,7 +1120,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1865,7 +1874,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>43444</v>
       </c>
@@ -1899,8 +1908,14 @@
       <c r="K26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="M26" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>43445</v>
       </c>
@@ -1934,10 +1949,52 @@
       <c r="K27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="M27" t="s">
+        <v>51</v>
+      </c>
+      <c r="N27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>43446</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>20</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="M28" t="s">
+        <v>52</v>
+      </c>
+      <c r="N28" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -180,10 +180,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -195,14 +195,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,6 +249,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,14 +293,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,85 +332,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -347,187 +347,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,15 +538,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -565,16 +556,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -595,16 +606,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -612,11 +623,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,15 +638,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -646,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,133 +658,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1120,7 +1120,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1997,9 +1997,45 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>43447</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.326388888888889</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>20</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <v>6</v>
+      </c>
+      <c r="M29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N29" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24450" windowHeight="11250"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>整理文档</t>
+  </si>
+  <si>
+    <t>回家</t>
+  </si>
+  <si>
+    <t>下载慕课网视频</t>
   </si>
 </sst>
 </file>
@@ -182,8 +188,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -196,6 +202,88 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,15 +305,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,97 +343,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -353,73 +359,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,102 +534,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,28 +547,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,21 +561,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,6 +576,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,9 +612,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,8 +639,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,130 +667,130 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1120,7 +1126,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2038,14 +2044,86 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>43448</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>43449</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>54</v>
+      </c>
+      <c r="N31" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>Date</t>
   </si>
@@ -179,6 +179,15 @@
   </si>
   <si>
     <t>下载慕课网视频</t>
+  </si>
+  <si>
+    <t>下载水库文档60G</t>
+  </si>
+  <si>
+    <t>vsftp in yonrun add virtual user</t>
+  </si>
+  <si>
+    <t>整理内务</t>
   </si>
 </sst>
 </file>
@@ -201,14 +210,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,7 +240,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,15 +255,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,8 +307,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,62 +339,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,13 +362,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,169 +494,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,11 +556,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,6 +595,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -591,32 +617,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,6 +639,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -652,145 +661,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,7 +1135,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2049,7 +2058,7 @@
         <v>43448</v>
       </c>
       <c r="B30" s="2">
-        <v>0.5625</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -2090,7 +2099,7 @@
         <v>43449</v>
       </c>
       <c r="B31" s="2">
-        <v>0.395833333333333</v>
+        <v>0.5625</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -2126,19 +2135,127 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>43450</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="2">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>55</v>
+      </c>
+      <c r="N32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>43451</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="M33" t="s">
+        <v>56</v>
+      </c>
+      <c r="N33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>43452</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.326388888888889</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="M34" t="s">
+        <v>57</v>
+      </c>
+      <c r="N34" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>Date</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>整理内务</t>
+  </si>
+  <si>
+    <t>给公司安装PHP7.1.13</t>
   </si>
 </sst>
 </file>
@@ -195,10 +198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -206,6 +209,20 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,45 +250,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,7 +273,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,6 +281,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,8 +301,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,6 +347,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -362,181 +365,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,17 +598,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -617,6 +609,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,9 +639,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,10 +664,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,133 +676,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,7 +1138,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2258,9 +2261,45 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>43453</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.326388888888889</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="M35" t="s">
+        <v>58</v>
+      </c>
+      <c r="N35" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>Date</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>给公司安装PHP7.1.13</t>
+  </si>
+  <si>
+    <t>准备下载新视频</t>
   </si>
 </sst>
 </file>
@@ -220,13 +223,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -235,7 +231,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,13 +287,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,14 +307,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,7 +337,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,45 +358,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -365,37 +368,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,145 +530,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,45 +559,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -616,8 +580,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,7 +616,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,145 +667,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,7 +1141,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2302,9 +2305,42 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>43454</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.319444444444444</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="M36" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="25035" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>Date</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>准备下载新视频</t>
+  </si>
+  <si>
+    <t>下载java1234.com中PDF</t>
   </si>
 </sst>
 </file>
@@ -201,10 +204,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -222,16 +225,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,30 +249,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,6 +260,20 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -306,8 +293,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,16 +331,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,6 +354,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -368,187 +371,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,30 +562,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -597,17 +576,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,11 +604,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,6 +644,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -667,145 +670,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1140,8 +1143,8 @@
   <sheetPr/>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2305,7 +2308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>43454</v>
       </c>
@@ -2342,20 +2345,131 @@
       <c r="M36" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="N36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>43455</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="M37" t="s">
+        <v>57</v>
+      </c>
+      <c r="N37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>43456</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="M38" t="s">
+        <v>54</v>
+      </c>
+      <c r="N38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>43457</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="M39" t="s">
+        <v>60</v>
+      </c>
+      <c r="N39" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25035" windowHeight="11685"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>Date</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>下载java1234.com中PDF</t>
+  </si>
+  <si>
+    <t>23-redis</t>
   </si>
 </sst>
 </file>
@@ -206,8 +209,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -220,29 +223,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,9 +251,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,22 +299,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,7 +320,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -356,7 +359,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,6 +374,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -383,6 +392,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -395,7 +458,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +518,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,133 +542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,21 +565,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -619,13 +607,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,9 +648,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,145 +673,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1143,7 +1146,7 @@
   <sheetPr/>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
@@ -2472,9 +2475,45 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>43458</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>20</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+      <c r="M40" t="s">
+        <v>61</v>
+      </c>
+      <c r="N40" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="24555" windowHeight="10515"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>Date</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>23-redis</t>
+  </si>
+  <si>
+    <t>下载老男孩10、11期视频，制作GitHub</t>
+  </si>
+  <si>
+    <t>下载Hadoop视频</t>
   </si>
 </sst>
 </file>
@@ -209,8 +215,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -235,14 +241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -257,7 +255,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -266,18 +263,24 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,9 +302,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,23 +331,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,8 +355,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,85 +386,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,91 +560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,6 +571,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -592,17 +622,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,15 +657,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -645,26 +671,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -673,145 +679,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1146,8 +1152,8 @@
   <sheetPr/>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1525,7 +1531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>43436</v>
       </c>
@@ -1561,6 +1567,9 @@
       </c>
       <c r="M10" t="s">
         <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2516,14 +2525,53 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:14">
       <c r="A41" s="1">
         <v>43459</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" s="2">
+        <v>0.326388888888889</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="M41" t="s">
+        <v>62</v>
+      </c>
+      <c r="N41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>43460</v>
+      </c>
+      <c r="M42" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>Date</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>下载Hadoop视频</t>
+  </si>
+  <si>
+    <t>编写precona xtradb clusterpdf</t>
   </si>
 </sst>
 </file>
@@ -213,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -228,23 +231,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,7 +260,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -271,7 +268,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,6 +285,22 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,9 +320,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,22 +336,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,22 +373,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -380,19 +383,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,162 +564,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,21 +574,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -602,6 +590,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -624,20 +623,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,21 +674,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -679,145 +682,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1152,8 +1155,8 @@
   <sheetPr/>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2563,20 +2566,56 @@
         <v>62</v>
       </c>
       <c r="N41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="1">
         <v>43460</v>
       </c>
+      <c r="B42" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
       <c r="M42" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="N42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>43461</v>
+      </c>
+      <c r="M43" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -217,9 +217,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -232,6 +232,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,7 +268,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,15 +289,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,14 +317,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,22 +337,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,14 +346,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,6 +366,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -383,187 +383,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,11 +577,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,13 +610,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,15 +640,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -645,32 +655,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,10 +682,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,133 +694,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1155,8 +1155,8 @@
   <sheetPr/>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2610,12 +2610,45 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:14">
       <c r="A43" s="1">
         <v>43461</v>
       </c>
+      <c r="B43" s="2">
+        <v>0.338194444444444</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>200</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
       <c r="M43" t="s">
         <v>64</v>
+      </c>
+      <c r="N43" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>Date</t>
   </si>
@@ -208,7 +208,13 @@
     <t>下载Hadoop视频</t>
   </si>
   <si>
-    <t>编写precona xtradb clusterpdf</t>
+    <t>杨海潮MySQL DBA搁置，建议转姜承晓与慕课PXC</t>
+  </si>
+  <si>
+    <t>计划搁置</t>
+  </si>
+  <si>
+    <t>下载2018公开课、编写github</t>
   </si>
 </sst>
 </file>
@@ -216,10 +222,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -244,9 +250,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,6 +267,45 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,61 +335,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,12 +357,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -383,187 +389,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,17 +583,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,45 +597,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,6 +618,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -666,11 +651,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,10 +688,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,133 +700,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,7 +1162,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2648,12 +2654,18 @@
         <v>64</v>
       </c>
       <c r="N43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>43462</v>
+      </c>
+      <c r="M44" t="s">
+        <v>66</v>
+      </c>
+      <c r="N44" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -222,10 +222,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -237,21 +237,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,9 +258,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,6 +308,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,20 +329,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,23 +351,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,14 +359,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,7 +374,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,13 +389,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,169 +539,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,35 +583,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,13 +622,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,17 +652,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,10 +688,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,133 +700,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,8 +1161,8 @@
   <sheetPr/>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2661,6 +2661,36 @@
       <c r="A44" s="1">
         <v>43462</v>
       </c>
+      <c r="B44" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
       <c r="M44" t="s">
         <v>66</v>
       </c>

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>Date</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>下载2018公开课、编写github</t>
+  </si>
+  <si>
+    <t>下载黑马、传智C、C++视频</t>
+  </si>
+  <si>
+    <t>车库</t>
   </si>
 </sst>
 </file>
@@ -222,10 +228,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -243,8 +249,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -252,14 +272,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,8 +309,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,59 +378,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -356,29 +385,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -389,187 +395,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,6 +586,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -602,7 +617,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,6 +642,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,35 +686,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -688,10 +694,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,133 +706,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,8 +1167,8 @@
   <sheetPr/>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2698,14 +2704,53 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>43463</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" s="2">
+        <v>0.326388888888889</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>10</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <v>5</v>
+      </c>
+      <c r="K45">
+        <v>5</v>
+      </c>
+      <c r="M45" t="s">
+        <v>67</v>
+      </c>
+      <c r="N45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>43464</v>
+      </c>
+      <c r="M46" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>Date</t>
   </si>
@@ -220,7 +220,22 @@
     <t>下载黑马、传智C、C++视频</t>
   </si>
   <si>
-    <t>车库</t>
+    <t>——</t>
+  </si>
+  <si>
+    <t>zabbix4.0 Openfalcon0.2 DOC、监控项目设计与实现1W台集群</t>
+  </si>
+  <si>
+    <t>转Bank、ZFB</t>
+  </si>
+  <si>
+    <t>提前HQ、ZH</t>
+  </si>
+  <si>
+    <t>before Signature</t>
+  </si>
+  <si>
+    <t>given money</t>
   </si>
 </sst>
 </file>
@@ -228,10 +243,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -243,36 +258,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,25 +342,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,15 +377,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -347,37 +393,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -395,12 +410,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -413,67 +566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,97 +578,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,11 +604,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,16 +638,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,26 +660,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,6 +692,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -694,145 +709,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1165,10 +1180,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2749,13 +2764,210 @@
       <c r="A46" s="1">
         <v>43464</v>
       </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
       <c r="M46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1">
         <v>43465</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1">
+        <v>43467</v>
+      </c>
+      <c r="M57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1">
+        <v>43468</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1">
+        <v>43470</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1">
+        <v>43472</v>
+      </c>
+      <c r="M62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1">
+        <v>43473</v>
+      </c>
+      <c r="M63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1">
+        <v>43474</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1">
+        <v>43475</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1">
+        <v>43476</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1">
+        <v>43477</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1">
+        <v>43478</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1">
+        <v>43479</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="1">
+        <v>43482</v>
+      </c>
+      <c r="M72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1">
+        <v>43483</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1">
+        <v>43484</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1">
+        <v>43485</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1">
+        <v>43488</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1">
+        <v>43489</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1">
+        <v>43490</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1">
+        <v>43491</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1">
+        <v>43492</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1">
+        <v>43493</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1">
+        <v>43494</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1">
+        <v>43496</v>
       </c>
     </row>
   </sheetData>

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24555" windowHeight="10515"/>
+    <workbookView windowWidth="23445" windowHeight="10515"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>Date</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>zabbix4.0 Openfalcon0.2 DOC、监控项目设计与实现1W台集群</t>
+  </si>
+  <si>
+    <t>洗衣机漏水</t>
   </si>
   <si>
     <t>转Bank、ZFB</t>
@@ -244,9 +247,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -254,13 +257,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,7 +291,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,9 +313,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,13 +331,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,7 +359,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,9 +373,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,12 +413,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -428,7 +425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +443,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,13 +503,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,127 +581,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,21 +604,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -658,6 +646,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -678,6 +681,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -692,15 +704,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -709,10 +712,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,133 +724,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1182,8 +1185,8 @@
   <sheetPr/>
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2798,9 +2801,42 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>43465</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>20</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <v>5</v>
+      </c>
+      <c r="M47" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:1">
@@ -2813,7 +2849,7 @@
         <v>43467</v>
       </c>
       <c r="M57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -2841,7 +2877,7 @@
         <v>43472</v>
       </c>
       <c r="M62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2849,7 +2885,7 @@
         <v>43473</v>
       </c>
       <c r="M63" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -2897,7 +2933,7 @@
         <v>43482</v>
       </c>
       <c r="M72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23445" windowHeight="10515"/>
+    <workbookView windowWidth="24975" windowHeight="10515"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>Date</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>洗衣机漏水</t>
+  </si>
+  <si>
+    <t>舱门密封性不好，衣服少一点或者仅甩干就行</t>
   </si>
   <si>
     <t>转Bank、ZFB</t>
@@ -247,8 +250,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -261,23 +264,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,8 +299,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,6 +330,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -337,7 +354,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,31 +383,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,14 +406,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -410,6 +413,108 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -419,7 +524,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,103 +578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,61 +590,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,6 +607,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -670,26 +693,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -712,10 +715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,133 +727,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1185,8 +1188,8 @@
   <sheetPr/>
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2801,7 +2804,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:14">
       <c r="A47" s="1">
         <v>43465</v>
       </c>
@@ -2838,10 +2841,43 @@
       <c r="M47" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="N47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>43466</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>10</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56">
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2849,7 +2885,7 @@
         <v>43467</v>
       </c>
       <c r="M57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -2877,7 +2913,7 @@
         <v>43472</v>
       </c>
       <c r="M62" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2885,7 +2921,7 @@
         <v>43473</v>
       </c>
       <c r="M63" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -2933,7 +2969,7 @@
         <v>43482</v>
       </c>
       <c r="M72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>Date</t>
   </si>
@@ -230,9 +230,6 @@
   </si>
   <si>
     <t>舱门密封性不好，衣服少一点或者仅甩干就行</t>
-  </si>
-  <si>
-    <t>转Bank、ZFB</t>
   </si>
   <si>
     <t>提前HQ、ZH</t>
@@ -250,9 +247,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -271,14 +268,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -286,7 +283,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,9 +296,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,22 +358,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,13 +389,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -368,40 +397,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,7 +413,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,7 +479,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,55 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,13 +575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,85 +587,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,41 +604,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -665,6 +627,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,6 +666,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -715,10 +712,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,133 +724,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1189,7 +1186,7 @@
   <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2880,17 +2877,74 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>43467</v>
       </c>
-      <c r="M57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57" s="2">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>20</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>5</v>
+      </c>
+      <c r="K57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>43468</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>6</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>20</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>5</v>
+      </c>
+      <c r="K58">
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -2913,7 +2967,7 @@
         <v>43472</v>
       </c>
       <c r="M62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2921,7 +2975,7 @@
         <v>43473</v>
       </c>
       <c r="M63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -2969,7 +3023,7 @@
         <v>43482</v>
       </c>
       <c r="M72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24975" windowHeight="10515"/>
+    <workbookView windowWidth="26940" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>Date</t>
   </si>
@@ -224,12 +224,6 @@
   </si>
   <si>
     <t>zabbix4.0 Openfalcon0.2 DOC、监控项目设计与实现1W台集群</t>
-  </si>
-  <si>
-    <t>洗衣机漏水</t>
-  </si>
-  <si>
-    <t>舱门密封性不好，衣服少一点或者仅甩干就行</t>
   </si>
   <si>
     <t>提前HQ、ZH</t>
@@ -261,12 +255,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -290,30 +361,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,63 +383,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,6 +407,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -425,7 +521,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,163 +581,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,6 +598,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -631,17 +640,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -653,15 +651,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,17 +679,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,10 +706,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,133 +718,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1185,8 +1179,8 @@
   <sheetPr/>
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47:N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2801,7 +2795,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>43465</v>
       </c>
@@ -2834,12 +2828,6 @@
       </c>
       <c r="K47">
         <v>5</v>
-      </c>
-      <c r="M47" t="s">
-        <v>70</v>
-      </c>
-      <c r="N47" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2947,9 +2935,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>43469</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>5</v>
+      </c>
+      <c r="H59">
+        <v>10</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+      <c r="K59">
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -2967,7 +2985,7 @@
         <v>43472</v>
       </c>
       <c r="M62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2975,7 +2993,7 @@
         <v>43473</v>
       </c>
       <c r="M63" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -3023,7 +3041,7 @@
         <v>43482</v>
       </c>
       <c r="M72" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>Date</t>
   </si>
@@ -226,13 +226,22 @@
     <t>zabbix4.0 Openfalcon0.2 DOC、监控项目设计与实现1W台集群</t>
   </si>
   <si>
+    <t>14期redis快学完，有prel问题未解决</t>
+  </si>
+  <si>
+    <t>要求jarsigned_down.tar</t>
+  </si>
+  <si>
+    <t>14期tomcat 学了一半，有zabbix依赖</t>
+  </si>
+  <si>
     <t>提前HQ、ZH</t>
   </si>
   <si>
-    <t>before Signature</t>
-  </si>
-  <si>
     <t>given money</t>
+  </si>
+  <si>
+    <t>领取存单</t>
   </si>
 </sst>
 </file>
@@ -240,10 +249,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -268,46 +277,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -330,21 +301,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -360,8 +316,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,9 +356,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,6 +368,44 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -404,6 +413,126 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -413,7 +542,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,37 +566,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,127 +590,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,21 +607,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -640,6 +634,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -655,17 +664,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,11 +693,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,10 +715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -718,133 +727,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1179,8 +1188,8 @@
   <sheetPr/>
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47:N47"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M67" sqref="M67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2935,7 +2944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
         <v>43469</v>
       </c>
@@ -2969,15 +2978,84 @@
       <c r="K59">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="M59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
         <v>43470</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" s="2">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="M60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
         <v>43471</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61">
+        <v>5</v>
+      </c>
+      <c r="H61">
+        <v>20</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <v>5</v>
+      </c>
+      <c r="K61">
+        <v>5</v>
+      </c>
+      <c r="M61" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2985,15 +3063,12 @@
         <v>43472</v>
       </c>
       <c r="M62" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
       <c r="A63" s="1">
         <v>43473</v>
-      </c>
-      <c r="M63" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -3041,7 +3116,7 @@
         <v>43482</v>
       </c>
       <c r="M72" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:1">
@@ -3049,9 +3124,12 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:13">
       <c r="A74" s="1">
         <v>43484</v>
+      </c>
+      <c r="M74" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>Date</t>
   </si>
@@ -226,16 +226,19 @@
     <t>zabbix4.0 Openfalcon0.2 DOC、监控项目设计与实现1W台集群</t>
   </si>
   <si>
-    <t>14期redis快学完，有prel问题未解决</t>
-  </si>
-  <si>
-    <t>要求jarsigned_down.tar</t>
+    <t>14期redis快学完，有prel问题未解决，集群需要重新配置一次</t>
+  </si>
+  <si>
+    <t>要求jarsigne_down.tar,可能是PHP的依赖</t>
   </si>
   <si>
     <t>14期tomcat 学了一半，有zabbix依赖</t>
   </si>
   <si>
     <t>提前HQ、ZH</t>
+  </si>
+  <si>
+    <t>准备搞定LVS，keepalived</t>
   </si>
   <si>
     <t>given money</t>
@@ -249,9 +252,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -264,6 +267,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -271,7 +281,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,6 +325,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -324,15 +355,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,21 +387,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -378,30 +396,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,61 +419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,54 +449,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -548,7 +461,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,13 +575,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,18 +600,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,21 +637,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -664,20 +652,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,6 +692,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -715,10 +718,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,133 +730,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1188,8 +1191,8 @@
   <sheetPr/>
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="M67" sqref="M67"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3058,17 +3061,53 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:14">
       <c r="A62" s="1">
         <v>43472</v>
       </c>
+      <c r="B62" s="2">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62">
+        <v>5</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+      <c r="K62">
+        <v>5</v>
+      </c>
       <c r="M62" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="N62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
         <v>43473</v>
+      </c>
+      <c r="M63" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -3116,7 +3155,7 @@
         <v>43482</v>
       </c>
       <c r="M72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:1">
@@ -3129,7 +3168,7 @@
         <v>43484</v>
       </c>
       <c r="M74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26940" windowHeight="12045"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>Date</t>
   </si>
@@ -239,6 +239,15 @@
   </si>
   <si>
     <t>准备搞定LVS，keepalived</t>
+  </si>
+  <si>
+    <t>keepalived版本不适宜</t>
+  </si>
+  <si>
+    <t>nginx代理负载</t>
+  </si>
+  <si>
+    <t>失误</t>
   </si>
   <si>
     <t>given money</t>
@@ -252,10 +261,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -267,14 +276,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,7 +305,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,6 +313,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,7 +358,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -341,7 +381,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,22 +390,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,21 +411,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -419,13 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,25 +446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,13 +488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,25 +500,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,67 +572,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,6 +627,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,6 +676,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -666,50 +719,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -718,10 +727,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,133 +739,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1191,8 +1200,8 @@
   <sheetPr/>
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3102,17 +3111,86 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:14">
       <c r="A63" s="1">
         <v>43473</v>
       </c>
+      <c r="B63" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>6</v>
+      </c>
+      <c r="E63">
+        <v>6</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>6</v>
+      </c>
+      <c r="H63">
+        <v>10</v>
+      </c>
+      <c r="I63">
+        <v>6</v>
+      </c>
+      <c r="J63">
+        <v>6</v>
+      </c>
+      <c r="K63">
+        <v>6</v>
+      </c>
       <c r="M63" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="N63" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="1">
         <v>43474</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="M64" t="s">
+        <v>76</v>
+      </c>
+      <c r="N64" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -3155,7 +3233,7 @@
         <v>43482</v>
       </c>
       <c r="M72" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:1">
@@ -3168,7 +3246,7 @@
         <v>43484</v>
       </c>
       <c r="M74" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="18030" windowHeight="6270"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -261,10 +261,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -272,6 +272,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,6 +304,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -304,15 +334,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,7 +344,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,8 +381,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,29 +391,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,25 +412,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,19 +428,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,31 +482,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,13 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,37 +518,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,7 +542,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,31 +578,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,13 +596,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,36 +627,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,17 +660,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,6 +710,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -727,145 +727,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1200,8 +1200,8 @@
   <sheetPr/>
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3193,9 +3193,39 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>43475</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.326388888888889</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <v>4</v>
+      </c>
+      <c r="J65">
+        <v>4</v>
+      </c>
+      <c r="K65">
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18030" windowHeight="6270"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -163,9 +163,6 @@
     <t>下载架构师15</t>
   </si>
   <si>
-    <t>文档不完整</t>
-  </si>
-  <si>
     <t>整理新书</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>失误</t>
+  </si>
+  <si>
+    <t>openfalcon0.20doc</t>
   </si>
   <si>
     <t>given money</t>
@@ -261,10 +261,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -276,12 +276,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -289,16 +297,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,15 +358,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,7 +375,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,47 +397,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,13 +418,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -425,162 +425,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -596,7 +440,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,7 +578,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,8 +624,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -646,13 +648,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,8 +666,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,17 +687,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,15 +719,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -727,10 +727,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -739,133 +739,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1200,8 +1200,8 @@
   <sheetPr/>
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1955,7 +1955,7 @@
         <v>48</v>
       </c>
       <c r="N25" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1993,7 +1993,7 @@
         <v>5</v>
       </c>
       <c r="M26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N26" t="s">
         <v>14</v>
@@ -2034,7 +2034,7 @@
         <v>5</v>
       </c>
       <c r="M27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N27" t="s">
         <v>14</v>
@@ -2075,7 +2075,7 @@
         <v>5</v>
       </c>
       <c r="M28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N28" t="s">
         <v>14</v>
@@ -2116,7 +2116,7 @@
         <v>6</v>
       </c>
       <c r="M29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N29" t="s">
         <v>14</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N30" t="s">
         <v>14</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N31" t="s">
         <v>14</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N32" t="s">
         <v>14</v>
@@ -2280,7 +2280,7 @@
         <v>3</v>
       </c>
       <c r="M33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N33" t="s">
         <v>14</v>
@@ -2321,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="M34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N34" t="s">
         <v>14</v>
@@ -2362,7 +2362,7 @@
         <v>3</v>
       </c>
       <c r="M35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N35" t="s">
         <v>14</v>
@@ -2403,7 +2403,7 @@
         <v>3</v>
       </c>
       <c r="M36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N36" t="s">
         <v>14</v>
@@ -2444,7 +2444,7 @@
         <v>4</v>
       </c>
       <c r="M37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N37" t="s">
         <v>14</v>
@@ -2485,7 +2485,7 @@
         <v>5</v>
       </c>
       <c r="M38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N38" t="s">
         <v>14</v>
@@ -2526,7 +2526,7 @@
         <v>5</v>
       </c>
       <c r="M39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N39" t="s">
         <v>14</v>
@@ -2567,7 +2567,7 @@
         <v>5</v>
       </c>
       <c r="M40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N40" t="s">
         <v>43</v>
@@ -2608,7 +2608,7 @@
         <v>3</v>
       </c>
       <c r="M41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N41" t="s">
         <v>14</v>
@@ -2649,7 +2649,7 @@
         <v>2</v>
       </c>
       <c r="M42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N42" t="s">
         <v>14</v>
@@ -2690,10 +2690,10 @@
         <v>2</v>
       </c>
       <c r="M43" t="s">
+        <v>63</v>
+      </c>
+      <c r="N43" t="s">
         <v>64</v>
-      </c>
-      <c r="N43" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2731,7 +2731,7 @@
         <v>3</v>
       </c>
       <c r="M44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N44" t="s">
         <v>43</v>
@@ -2772,7 +2772,7 @@
         <v>5</v>
       </c>
       <c r="M45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N45" t="s">
         <v>14</v>
@@ -2783,37 +2783,37 @@
         <v>43464</v>
       </c>
       <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+      <c r="M46" t="s">
         <v>68</v>
-      </c>
-      <c r="C46" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>5</v>
-      </c>
-      <c r="J46">
-        <v>5</v>
-      </c>
-      <c r="K46">
-        <v>5</v>
-      </c>
-      <c r="M46" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2991,7 +2991,7 @@
         <v>5</v>
       </c>
       <c r="M59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="M60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3067,7 +3067,7 @@
         <v>5</v>
       </c>
       <c r="M61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3105,7 +3105,7 @@
         <v>5</v>
       </c>
       <c r="M62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N62" t="s">
         <v>14</v>
@@ -3146,10 +3146,10 @@
         <v>6</v>
       </c>
       <c r="M63" t="s">
+        <v>73</v>
+      </c>
+      <c r="N63" t="s">
         <v>74</v>
-      </c>
-      <c r="N63" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3187,10 +3187,10 @@
         <v>3</v>
       </c>
       <c r="M64" t="s">
+        <v>75</v>
+      </c>
+      <c r="N64" t="s">
         <v>76</v>
-      </c>
-      <c r="N64" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3228,9 +3228,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:14">
       <c r="A66" s="1">
         <v>43476</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.319444444444444</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>3</v>
+      </c>
+      <c r="J66">
+        <v>3</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="M66" t="s">
+        <v>77</v>
+      </c>
+      <c r="N66" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
+    <sheet name="每日学习成绩 量化考核评定V2.0" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>Date</t>
   </si>
@@ -248,6 +249,24 @@
   </si>
   <si>
     <t>openfalcon0.20doc</t>
+  </si>
+  <si>
+    <t>nagios3.5.1doc</t>
+  </si>
+  <si>
+    <t>晚饭是否健康</t>
+  </si>
+  <si>
+    <t>运动三十分钟减肥(23:00-23:30)</t>
+  </si>
+  <si>
+    <t>看架构师相关书籍(23：30-00：00)</t>
+  </si>
+  <si>
+    <t>喝水/牛奶8杯</t>
+  </si>
+  <si>
+    <t>21点后不喝水</t>
   </si>
   <si>
     <t>given money</t>
@@ -261,10 +280,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -276,14 +295,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,9 +310,55 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,77 +385,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,9 +408,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,7 +447,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +483,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,25 +573,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,13 +603,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,109 +627,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,17 +638,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -644,21 +652,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,18 +682,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,6 +705,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -727,10 +746,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -739,133 +758,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1198,10 +1217,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V64" sqref="V64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2851,47 +2870,354 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+      <c r="H48">
+        <v>10</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+      <c r="K48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>43467</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>20</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+      <c r="K49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1">
+        <v>43468</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>20</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1">
+        <v>43469</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>10</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="M51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1">
+        <v>43470</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1">
+        <v>43471</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>8</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>20</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="M53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="1">
+        <v>43472</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>5</v>
+      </c>
+      <c r="M54" t="s">
+        <v>72</v>
+      </c>
+      <c r="N54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="1">
+        <v>43473</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>6</v>
+      </c>
+      <c r="H55">
+        <v>10</v>
+      </c>
+      <c r="I55">
+        <v>6</v>
+      </c>
+      <c r="J55">
+        <v>6</v>
+      </c>
+      <c r="K55">
+        <v>6</v>
+      </c>
+      <c r="M55" t="s">
+        <v>73</v>
+      </c>
+      <c r="N55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="1">
-        <v>43466</v>
+        <v>43474</v>
       </c>
       <c r="B56" s="2">
-        <v>0.5625</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H56">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K56">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="M56" t="s">
+        <v>75</v>
+      </c>
+      <c r="N56" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1">
-        <v>43467</v>
+        <v>43475</v>
       </c>
       <c r="B57" s="2">
-        <v>0.291666666666667</v>
+        <v>0.326388888888889</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
@@ -2900,478 +3226,295 @@
         <v>5</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H57">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="1">
-        <v>43468</v>
+        <v>43476</v>
       </c>
       <c r="B58" s="2">
-        <v>0.3125</v>
+        <v>0.319444444444444</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E58">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H58">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>3</v>
+      </c>
+      <c r="M58" t="s">
+        <v>77</v>
+      </c>
+      <c r="N58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="1">
-        <v>43469</v>
+        <v>43477</v>
       </c>
       <c r="B59" s="2">
-        <v>0.291666666666667</v>
+        <v>0.5625</v>
       </c>
       <c r="C59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>10</v>
       </c>
       <c r="I59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M59" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="1">
-        <v>43470</v>
-      </c>
-      <c r="B60" s="2">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="C60" t="b">
+        <v>78</v>
+      </c>
+      <c r="N59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="5.625" customWidth="1"/>
+    <col min="10" max="10" width="15.75" customWidth="1"/>
+    <col min="11" max="11" width="15.875" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="11.75" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="M60" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="1">
-        <v>43471</v>
-      </c>
-      <c r="B61" s="2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1"/>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>43478</v>
+      </c>
+      <c r="B2" s="2">
         <v>0.5625</v>
       </c>
-      <c r="C61" t="b">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>8</v>
-      </c>
-      <c r="G61">
-        <v>5</v>
-      </c>
-      <c r="H61">
-        <v>20</v>
-      </c>
-      <c r="I61">
-        <v>5</v>
-      </c>
-      <c r="J61">
-        <v>5</v>
-      </c>
-      <c r="K61">
-        <v>5</v>
-      </c>
-      <c r="M61" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="1">
-        <v>43472</v>
-      </c>
-      <c r="B62" s="2">
-        <v>0.479166666666667</v>
-      </c>
-      <c r="C62" t="b">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>6</v>
-      </c>
-      <c r="G62">
-        <v>5</v>
-      </c>
-      <c r="H62">
-        <v>5</v>
-      </c>
-      <c r="I62">
-        <v>5</v>
-      </c>
-      <c r="J62">
-        <v>5</v>
-      </c>
-      <c r="K62">
-        <v>5</v>
-      </c>
-      <c r="M62" t="s">
-        <v>72</v>
-      </c>
-      <c r="N62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="1">
-        <v>43473</v>
-      </c>
-      <c r="B63" s="2">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="C63" t="b">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>6</v>
-      </c>
-      <c r="E63">
-        <v>6</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>6</v>
-      </c>
-      <c r="H63">
-        <v>10</v>
-      </c>
-      <c r="I63">
-        <v>6</v>
-      </c>
-      <c r="J63">
-        <v>6</v>
-      </c>
-      <c r="K63">
-        <v>6</v>
-      </c>
-      <c r="M63" t="s">
-        <v>73</v>
-      </c>
-      <c r="N63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="1">
-        <v>43474</v>
-      </c>
-      <c r="B64" s="2">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="C64" t="b">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>5</v>
-      </c>
-      <c r="E64">
-        <v>3</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>3</v>
-      </c>
-      <c r="H64">
-        <v>5</v>
-      </c>
-      <c r="I64">
-        <v>3</v>
-      </c>
-      <c r="J64">
-        <v>3</v>
-      </c>
-      <c r="K64">
-        <v>3</v>
-      </c>
-      <c r="M64" t="s">
-        <v>75</v>
-      </c>
-      <c r="N64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="1">
-        <v>43475</v>
-      </c>
-      <c r="B65" s="2">
-        <v>0.326388888888889</v>
-      </c>
-      <c r="C65" t="b">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>5</v>
-      </c>
-      <c r="E65">
-        <v>4</v>
-      </c>
-      <c r="F65">
-        <v>5</v>
-      </c>
-      <c r="G65">
-        <v>5</v>
-      </c>
-      <c r="H65">
-        <v>5</v>
-      </c>
-      <c r="I65">
-        <v>4</v>
-      </c>
-      <c r="J65">
-        <v>4</v>
-      </c>
-      <c r="K65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="1">
-        <v>43476</v>
-      </c>
-      <c r="B66" s="2">
-        <v>0.319444444444444</v>
-      </c>
-      <c r="C66" t="b">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>4</v>
-      </c>
-      <c r="E66">
-        <v>3</v>
-      </c>
-      <c r="F66">
-        <v>5</v>
-      </c>
-      <c r="G66">
-        <v>4</v>
-      </c>
-      <c r="H66">
-        <v>5</v>
-      </c>
-      <c r="I66">
-        <v>3</v>
-      </c>
-      <c r="J66">
-        <v>3</v>
-      </c>
-      <c r="K66">
-        <v>3</v>
-      </c>
-      <c r="M66" t="s">
-        <v>77</v>
-      </c>
-      <c r="N66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="1">
-        <v>43477</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="1">
-        <v>43478</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="1">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1">
         <v>43479</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="1">
+    <row r="4" spans="1:1">
+      <c r="A4" s="1">
         <v>43480</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="1">
+    <row r="5" spans="1:1">
+      <c r="A5" s="1">
         <v>43481</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="1">
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
         <v>43482</v>
       </c>
-      <c r="M72" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="1">
+      <c r="Q6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1">
         <v>43483</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="1">
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
         <v>43484</v>
       </c>
-      <c r="M74" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="1">
+      <c r="Q8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1">
         <v>43485</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="1">
+    <row r="10" spans="1:1">
+      <c r="A10" s="1">
         <v>43486</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="1">
+    <row r="11" spans="1:1">
+      <c r="A11" s="1">
         <v>43487</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="1">
+    <row r="12" spans="1:1">
+      <c r="A12" s="1">
         <v>43488</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="1">
+    <row r="13" spans="1:1">
+      <c r="A13" s="1">
         <v>43489</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="1">
+    <row r="14" spans="1:1">
+      <c r="A14" s="1">
         <v>43490</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="1">
+    <row r="15" spans="1:1">
+      <c r="A15" s="1">
         <v>43491</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="1">
+    <row r="16" spans="1:1">
+      <c r="A16" s="1">
         <v>43492</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="1">
+    <row r="17" spans="1:1">
+      <c r="A17" s="1">
         <v>43493</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="1">
+    <row r="18" spans="1:1">
+      <c r="A18" s="1">
         <v>43494</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="1">
+    <row r="19" spans="1:1">
+      <c r="A19" s="1">
         <v>43495</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="1">
+    <row r="20" spans="1:1">
+      <c r="A20" s="1">
         <v>43496</v>
       </c>
     </row>

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
   <si>
     <t>Date</t>
   </si>
@@ -254,13 +254,16 @@
     <t>nagios3.5.1doc</t>
   </si>
   <si>
-    <t>晚饭是否健康</t>
-  </si>
-  <si>
-    <t>运动三十分钟减肥(23:00-23:30)</t>
-  </si>
-  <si>
-    <t>看架构师相关书籍(23：30-00：00)</t>
+    <t>胡须发型着装</t>
+  </si>
+  <si>
+    <t>晚饭健康</t>
+  </si>
+  <si>
+    <t>运动减肥(23:00-23:30)</t>
+  </si>
+  <si>
+    <t>看架构师书籍(23：30-00：00)</t>
   </si>
   <si>
     <t>喝水/牛奶8杯</t>
@@ -269,10 +272,28 @@
     <t>21点后不喝水</t>
   </si>
   <si>
+    <t>保持微笑</t>
+  </si>
+  <si>
+    <t>自律自重</t>
+  </si>
+  <si>
+    <t>TURE</t>
+  </si>
+  <si>
+    <t>nagios</t>
+  </si>
+  <si>
+    <t>老男孩成长经验in 2018总结 to github</t>
+  </si>
+  <si>
     <t>given money</t>
   </si>
   <si>
     <t>领取存单</t>
+  </si>
+  <si>
+    <t>总结</t>
   </si>
 </sst>
 </file>
@@ -280,10 +301,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -295,37 +316,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,7 +339,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,13 +350,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,14 +364,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,7 +385,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,7 +393,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,6 +435,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -447,7 +468,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,7 +558,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,121 +624,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,31 +642,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,21 +659,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -680,28 +686,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,11 +734,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,10 +767,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -758,133 +779,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1219,13 +1240,21 @@
   <sheetPr/>
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V64" sqref="V64"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="7.2" customWidth="1"/>
+    <col min="5" max="5" width="7.93333333333333" customWidth="1"/>
+    <col min="6" max="6" width="4.99166666666667" customWidth="1"/>
+    <col min="7" max="7" width="7.64166666666667" customWidth="1"/>
+    <col min="8" max="8" width="7.79166666666667" customWidth="1"/>
+    <col min="9" max="9" width="7.20833333333333" customWidth="1"/>
+    <col min="10" max="10" width="7.2" customWidth="1"/>
+    <col min="11" max="11" width="7.64166666666667" customWidth="1"/>
     <col min="13" max="13" width="65.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3338,29 +3367,33 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="7.375" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="7" max="7" width="5.625" customWidth="1"/>
-    <col min="10" max="10" width="15.75" customWidth="1"/>
-    <col min="11" max="11" width="15.875" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="11.75" customWidth="1"/>
-    <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="7.75" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="5.375" customWidth="1"/>
+    <col min="9" max="9" width="8.25" customWidth="1"/>
+    <col min="10" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
+    <col min="13" max="13" width="12.375" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="8.25" customWidth="1"/>
+    <col min="16" max="17" width="8" customWidth="1"/>
+    <col min="18" max="18" width="8.25" customWidth="1"/>
+    <col min="19" max="19" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3371,25 +3404,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>79</v>
-      </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>80</v>
       </c>
       <c r="K1" t="s">
         <v>81</v>
@@ -3401,30 +3434,92 @@
         <v>83</v>
       </c>
       <c r="N1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="P1"/>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>43478</v>
       </c>
       <c r="B2" s="2">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>43479</v>
+      </c>
+      <c r="S3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -3437,12 +3532,12 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>43482</v>
       </c>
-      <c r="Q6" t="s">
-        <v>84</v>
+      <c r="S6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -3450,12 +3545,12 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>43484</v>
       </c>
-      <c r="Q8" t="s">
-        <v>85</v>
+      <c r="S8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -3516,6 +3611,11 @@
     <row r="20" spans="1:1">
       <c r="A20" s="1">
         <v>43496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="1"/>
+    <workbookView windowWidth="26460" windowHeight="11715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
   <si>
     <t>Date</t>
   </si>
@@ -263,16 +263,16 @@
     <t>运动减肥(23:00-23:30)</t>
   </si>
   <si>
-    <t>看架构师书籍(23：30-00：00)</t>
-  </si>
-  <si>
-    <t>喝水/牛奶8杯</t>
-  </si>
-  <si>
-    <t>21点后不喝水</t>
-  </si>
-  <si>
-    <t>保持微笑</t>
+    <t>架构师书(23：30-00：00)</t>
+  </si>
+  <si>
+    <t>喝水/奶8杯</t>
+  </si>
+  <si>
+    <t>21后不水</t>
+  </si>
+  <si>
+    <t>微笑保持</t>
   </si>
   <si>
     <t>自律自重</t>
@@ -281,19 +281,112 @@
     <t>TURE</t>
   </si>
   <si>
-    <t>nagios</t>
+    <t>nagios文档整理（实验将被搁置准备全力学zabbix与openfalcon）</t>
+  </si>
+  <si>
+    <t>进行中</t>
   </si>
   <si>
     <t>老男孩成长经验in 2018总结 to github</t>
   </si>
   <si>
+    <t>未开始</t>
+  </si>
+  <si>
+    <t>nagios、cacti文档整理</t>
+  </si>
+  <si>
+    <t>iptables tree一下公司电脑文件，查看是否有严重缺失的文档、视频</t>
+  </si>
+  <si>
     <t>given money</t>
   </si>
   <si>
-    <t>领取存单</t>
+    <t>CDN</t>
+  </si>
+  <si>
+    <t>领取存单 RAID</t>
+  </si>
+  <si>
+    <t>休息一天 EXT2</t>
+  </si>
+  <si>
+    <t>年会</t>
+  </si>
+  <si>
+    <t>准备VMware15.0.2与15期CentOS7系统 14-09</t>
+  </si>
+  <si>
+    <t>01-单机时代</t>
+  </si>
+  <si>
+    <t>02-集群系统</t>
+  </si>
+  <si>
+    <t>03-实战dns</t>
+  </si>
+  <si>
+    <t>休息一天 04-缓存篇</t>
+  </si>
+  <si>
+    <t>05-存储篇</t>
+  </si>
+  <si>
+    <t>06-SaltStack实战</t>
+  </si>
+  <si>
+    <t>07-SaltStack实战</t>
+  </si>
+  <si>
+    <t>Day10-监控zabbix</t>
   </si>
   <si>
     <t>总结</t>
+  </si>
+  <si>
+    <t>Day11-监控zabbix</t>
+  </si>
+  <si>
+    <t>预搁置109-117</t>
+  </si>
+  <si>
+    <t>Day12-监控zabbix</t>
+  </si>
+  <si>
+    <t>由15-20，14-25，26代</t>
+  </si>
+  <si>
+    <t>08-自动化监控Zabbix</t>
+  </si>
+  <si>
+    <t>09-自动化监控Zabbix</t>
+  </si>
+  <si>
+    <t>春节在家可以做文档整理工作</t>
+  </si>
+  <si>
+    <t>10-Jenkins持续集成（需要14期java、tomcat笔记）</t>
+  </si>
+  <si>
+    <t>整理架构师相关笔记</t>
+  </si>
+  <si>
+    <t>11-Jenkins持续集成</t>
+  </si>
+  <si>
+    <t>12-ELK日志收集</t>
+  </si>
+  <si>
+    <t>13-ELK日志收集</t>
+  </si>
+  <si>
+    <t>上班、考虑把系统都拷贝到新大块1T硬盘</t>
+  </si>
+  <si>
+    <t>休假</t>
+  </si>
+  <si>
+    <t>春节</t>
   </si>
 </sst>
 </file>
@@ -301,77 +394,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -385,7 +416,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,27 +438,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -436,6 +467,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -444,16 +490,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,7 +561,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,19 +645,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,43 +687,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,7 +705,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,91 +735,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,15 +752,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -682,6 +766,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,24 +803,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -730,6 +814,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,10 +846,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -767,10 +860,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -779,133 +872,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3367,10 +3460,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3382,15 +3475,16 @@
     <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="7" width="8.5" customWidth="1"/>
     <col min="8" max="8" width="5.375" customWidth="1"/>
-    <col min="9" max="9" width="8.25" customWidth="1"/>
+    <col min="9" max="9" width="4.375" customWidth="1"/>
     <col min="10" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="11.625" customWidth="1"/>
-    <col min="13" max="13" width="12.375" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="8.25" customWidth="1"/>
-    <col min="16" max="17" width="8" customWidth="1"/>
-    <col min="18" max="18" width="8.25" customWidth="1"/>
-    <col min="19" max="19" width="36.125" customWidth="1"/>
+    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="13" max="13" width="10.5" customWidth="1"/>
+    <col min="14" max="14" width="8.5" customWidth="1"/>
+    <col min="15" max="15" width="4.5" customWidth="1"/>
+    <col min="16" max="16" width="4" customWidth="1"/>
+    <col min="17" max="17" width="8" customWidth="1"/>
+    <col min="18" max="18" width="4.625" customWidth="1"/>
+    <col min="19" max="19" width="55.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -3455,7 +3549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>43478</v>
       </c>
@@ -3513,23 +3607,83 @@
       <c r="S2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>43479</v>
       </c>
+      <c r="B3" s="2">
+        <v>0.319444444444444</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
       <c r="S3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>90</v>
+      </c>
+      <c r="T3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>43480</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="S4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>43481</v>
+      </c>
+      <c r="S5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3537,12 +3691,15 @@
         <v>43482</v>
       </c>
       <c r="S6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>43483</v>
+      </c>
+      <c r="S7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -3550,73 +3707,341 @@
         <v>43484</v>
       </c>
       <c r="S8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>43485</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="S9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>43486</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="S10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>43487</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="S11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>43488</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="S12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>43489</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="S13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>43490</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="S14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>43491</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="S15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>43492</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="S16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>43493</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="S17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>43494</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="S18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>43495</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="S19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>43496</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="S20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>92</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="S21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19">
+      <c r="B22" t="s">
+        <v>110</v>
+      </c>
+      <c r="S22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19">
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="S23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="19:19">
+      <c r="S24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="S25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19">
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="S26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="19:19">
+      <c r="S27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="19:19">
+      <c r="S28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="1">
+        <v>43498</v>
+      </c>
+      <c r="S30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="1">
+        <v>43499</v>
+      </c>
+      <c r="S31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="1">
+        <v>43500</v>
+      </c>
+      <c r="S32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="1">
+        <v>43501</v>
+      </c>
+      <c r="S33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="1">
+        <v>43502</v>
+      </c>
+      <c r="S34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="1">
+        <v>43503</v>
+      </c>
+      <c r="S35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="1">
+        <v>43504</v>
+      </c>
+      <c r="S36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="1">
+        <v>43505</v>
+      </c>
+      <c r="S37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="1">
+        <v>43506</v>
+      </c>
+      <c r="S38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="1">
+        <v>43507</v>
+      </c>
+      <c r="S39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1">
+        <v>43508</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1">
+        <v>43509</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1">
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1">
+        <v>43512</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1">
+        <v>43513</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1">
+        <v>43516</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1">
+        <v>43519</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1">
+        <v>43521</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1">
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1">
+        <v>43523</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -296,7 +296,7 @@
     <t>nagios、cacti文档整理</t>
   </si>
   <si>
-    <t>iptables tree一下公司电脑文件，查看是否有严重缺失的文档、视频</t>
+    <t>iptables tree一下公司电脑文件，查看是否有严重缺失的文档、视频 带上CentOS76</t>
   </si>
   <si>
     <t>given money</t>
@@ -394,10 +394,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -408,13 +408,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -422,8 +416,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,7 +440,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,6 +456,52 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,73 +516,24 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -540,13 +547,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,7 +567,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,7 +621,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,13 +657,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,37 +675,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,25 +693,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,31 +711,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,31 +741,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,6 +752,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -766,24 +786,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,17 +820,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -852,6 +843,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -860,10 +860,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -872,16 +872,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -890,115 +890,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3463,7 +3463,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3663,6 +3663,9 @@
       <c r="Q3">
         <v>0</v>
       </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
       <c r="S3" t="s">
         <v>90</v>
       </c>
@@ -3673,6 +3676,57 @@
     <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>43480</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.319444444444444</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
       </c>
       <c r="S4" t="s">
         <v>92</v>

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26460" windowHeight="11715" activeTab="1"/>
+    <workbookView windowWidth="26835" windowHeight="11775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -395,9 +395,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -408,54 +408,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,47 +423,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,7 +445,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,6 +453,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,7 +475,78 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,6 +558,54 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -573,7 +621,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,19 +651,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,19 +675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,91 +687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,13 +705,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,20 +757,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,6 +794,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -816,6 +814,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,24 +852,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -860,10 +860,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -872,133 +872,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3463,7 +3463,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3736,6 +3736,57 @@
       <c r="A5" s="1">
         <v>43481</v>
       </c>
+      <c r="B5" s="2">
+        <v>0.319444444444444</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
       <c r="S5" t="s">
         <v>93</v>
       </c>

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
   <si>
     <t>Date</t>
   </si>
@@ -293,7 +293,7 @@
     <t>未开始</t>
   </si>
   <si>
-    <t>nagios、cacti文档整理</t>
+    <t>nagios、cacti文档整理  RAID EXT2</t>
   </si>
   <si>
     <t>iptables tree一下公司电脑文件，查看是否有严重缺失的文档、视频 带上CentOS76</t>
@@ -302,33 +302,18 @@
     <t>given money</t>
   </si>
   <si>
-    <t>CDN</t>
-  </si>
-  <si>
-    <t>领取存单 RAID</t>
-  </si>
-  <si>
-    <t>休息一天 EXT2</t>
+    <t>02-集群系统</t>
+  </si>
+  <si>
+    <t>领取存单 03-实战dns</t>
+  </si>
+  <si>
+    <t>休息一天 04-缓存篇</t>
   </si>
   <si>
     <t>年会</t>
   </si>
   <si>
-    <t>准备VMware15.0.2与15期CentOS7系统 14-09</t>
-  </si>
-  <si>
-    <t>01-单机时代</t>
-  </si>
-  <si>
-    <t>02-集群系统</t>
-  </si>
-  <si>
-    <t>03-实战dns</t>
-  </si>
-  <si>
-    <t>休息一天 04-缓存篇</t>
-  </si>
-  <si>
     <t>05-存储篇</t>
   </si>
   <si>
@@ -341,43 +326,46 @@
     <t>Day10-监控zabbix</t>
   </si>
   <si>
+    <t>休息一天</t>
+  </si>
+  <si>
+    <t>Day11-监控zabbix</t>
+  </si>
+  <si>
+    <t>Day12-监控zabbix</t>
+  </si>
+  <si>
+    <t>08-自动化监控Zabbix</t>
+  </si>
+  <si>
+    <t>09-自动化监控Zabbix</t>
+  </si>
+  <si>
     <t>总结</t>
   </si>
   <si>
-    <t>Day11-监控zabbix</t>
+    <t>10-Jenkins持续集成（需要14期java、tomcat笔记）</t>
   </si>
   <si>
     <t>预搁置109-117</t>
   </si>
   <si>
-    <t>Day12-监控zabbix</t>
+    <t>11-Jenkins持续集成</t>
   </si>
   <si>
     <t>由15-20，14-25，26代</t>
   </si>
   <si>
-    <t>08-自动化监控Zabbix</t>
-  </si>
-  <si>
-    <t>09-自动化监控Zabbix</t>
+    <t>12-ELK日志收集</t>
+  </si>
+  <si>
+    <t>13-ELK日志收集</t>
   </si>
   <si>
     <t>春节在家可以做文档整理工作</t>
   </si>
   <si>
-    <t>10-Jenkins持续集成（需要14期java、tomcat笔记）</t>
-  </si>
-  <si>
     <t>整理架构师相关笔记</t>
-  </si>
-  <si>
-    <t>11-Jenkins持续集成</t>
-  </si>
-  <si>
-    <t>12-ELK日志收集</t>
-  </si>
-  <si>
-    <t>13-ELK日志收集</t>
   </si>
   <si>
     <t>上班、考虑把系统都拷贝到新大块1T硬盘</t>
@@ -409,14 +397,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,15 +447,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -445,7 +456,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,24 +525,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,62 +537,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -561,7 +549,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,7 +609,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,43 +705,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,114 +730,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,17 +752,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,6 +778,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,37 +826,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,10 +848,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -872,133 +860,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3463,7 +3451,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="S17" sqref="S17:S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3795,6 +3783,48 @@
       <c r="A6" s="1">
         <v>43482</v>
       </c>
+      <c r="B6" s="2">
+        <v>0.319444444444444</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>8</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
       <c r="S6" t="s">
         <v>94</v>
       </c>
@@ -3940,30 +3970,14 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="2:19">
+    <row r="25" spans="2:2">
       <c r="B25" t="s">
         <v>115</v>
       </c>
-      <c r="S25" t="s">
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19">
-      <c r="B26" t="s">
-        <v>117</v>
-      </c>
-      <c r="S26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="19:19">
-      <c r="S27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="19:19">
-      <c r="S28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -3976,7 +3990,7 @@
         <v>43498</v>
       </c>
       <c r="S30" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -3984,7 +3998,7 @@
         <v>43499</v>
       </c>
       <c r="S31" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -3992,7 +4006,7 @@
         <v>43500</v>
       </c>
       <c r="S32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -4000,7 +4014,7 @@
         <v>43501</v>
       </c>
       <c r="S33" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -4008,7 +4022,7 @@
         <v>43502</v>
       </c>
       <c r="S34" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -4016,7 +4030,7 @@
         <v>43503</v>
       </c>
       <c r="S35" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -4024,7 +4038,7 @@
         <v>43504</v>
       </c>
       <c r="S36" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -4032,7 +4046,7 @@
         <v>43505</v>
       </c>
       <c r="S37" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -4040,7 +4054,7 @@
         <v>43506</v>
       </c>
       <c r="S38" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -4048,7 +4062,7 @@
         <v>43507</v>
       </c>
       <c r="S39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -382,10 +382,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -397,7 +397,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,13 +440,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -440,75 +455,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -532,11 +479,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -549,7 +549,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,55 +651,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,85 +699,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,7 +729,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,21 +752,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -778,35 +763,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,6 +796,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -848,145 +848,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3451,7 +3451,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17:S24"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3801,6 +3801,9 @@
       <c r="G6">
         <v>7</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
       <c r="I6">
         <v>5</v>
       </c>
@@ -3812,6 +3815,12 @@
       </c>
       <c r="L6">
         <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -3832,6 +3841,48 @@
     <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>43483</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.319444444444444</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
       </c>
       <c r="S7" t="s">
         <v>95</v>

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26835" windowHeight="11775" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
   <si>
     <t>Date</t>
   </si>
@@ -296,24 +296,39 @@
     <t>nagios、cacti文档整理  RAID EXT2</t>
   </si>
   <si>
-    <t>iptables tree一下公司电脑文件，查看是否有严重缺失的文档、视频 带上CentOS76</t>
+    <t>仅文档 不实验</t>
+  </si>
+  <si>
+    <t>iptables</t>
   </si>
   <si>
     <t>given money</t>
   </si>
   <si>
+    <t>完成</t>
+  </si>
+  <si>
     <t>02-集群系统</t>
   </si>
   <si>
-    <t>领取存单 03-实战dns</t>
-  </si>
-  <si>
-    <t>休息一天 04-缓存篇</t>
+    <t>领取存单</t>
+  </si>
+  <si>
+    <t>整理房间、理发</t>
   </si>
   <si>
     <t>年会</t>
   </si>
   <si>
+    <t>03-实战dns 百度云下载</t>
+  </si>
+  <si>
+    <t>04-缓存篇</t>
+  </si>
+  <si>
+    <t>休息一天</t>
+  </si>
+  <si>
     <t>05-存储篇</t>
   </si>
   <si>
@@ -326,46 +341,43 @@
     <t>Day10-监控zabbix</t>
   </si>
   <si>
-    <t>休息一天</t>
+    <t>总结</t>
   </si>
   <si>
     <t>Day11-监控zabbix</t>
   </si>
   <si>
+    <t>预搁置109-117</t>
+  </si>
+  <si>
     <t>Day12-监控zabbix</t>
   </si>
   <si>
+    <t>由15-20，14-25，26代</t>
+  </si>
+  <si>
     <t>08-自动化监控Zabbix</t>
   </si>
   <si>
     <t>09-自动化监控Zabbix</t>
   </si>
   <si>
-    <t>总结</t>
+    <t>春节在家可以做文档整理工作</t>
   </si>
   <si>
     <t>10-Jenkins持续集成（需要14期java、tomcat笔记）</t>
   </si>
   <si>
-    <t>预搁置109-117</t>
+    <t>整理架构师相关笔记</t>
   </si>
   <si>
     <t>11-Jenkins持续集成</t>
   </si>
   <si>
-    <t>由15-20，14-25，26代</t>
-  </si>
-  <si>
     <t>12-ELK日志收集</t>
   </si>
   <si>
     <t>13-ELK日志收集</t>
-  </si>
-  <si>
-    <t>春节在家可以做文档整理工作</t>
-  </si>
-  <si>
-    <t>整理架构师相关笔记</t>
   </si>
   <si>
     <t>上班、考虑把系统都拷贝到新大块1T硬盘</t>
@@ -384,8 +396,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -426,7 +438,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,17 +475,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,9 +513,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,23 +544,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,115 +567,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,7 +591,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,7 +621,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,13 +669,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,12 +742,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,6 +818,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -825,21 +852,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -848,10 +860,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,13 +875,13 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -878,112 +890,112 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3451,7 +3463,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3544,8 +3556,8 @@
       <c r="B2" s="2">
         <v>0.5625</v>
       </c>
-      <c r="C2" t="s">
-        <v>87</v>
+      <c r="C2" t="b">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>87</v>
@@ -3606,8 +3618,8 @@
       <c r="B3" s="2">
         <v>0.319444444444444</v>
       </c>
-      <c r="C3" t="s">
-        <v>87</v>
+      <c r="C3" t="b">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>87</v>
@@ -3661,15 +3673,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>43480</v>
       </c>
       <c r="B4" s="2">
         <v>0.319444444444444</v>
       </c>
-      <c r="C4" t="s">
-        <v>87</v>
+      <c r="C4" t="b">
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>87</v>
@@ -3719,16 +3731,19 @@
       <c r="S4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>43481</v>
       </c>
       <c r="B5" s="2">
         <v>0.319444444444444</v>
       </c>
-      <c r="C5" t="s">
-        <v>87</v>
+      <c r="C5" t="b">
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>87</v>
@@ -3776,18 +3791,21 @@
         <v>5</v>
       </c>
       <c r="S5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>43482</v>
       </c>
       <c r="B6" s="2">
         <v>0.319444444444444</v>
       </c>
-      <c r="C6" t="s">
-        <v>87</v>
+      <c r="C6" t="b">
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>87</v>
@@ -3835,18 +3853,21 @@
         <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>95</v>
+      </c>
+      <c r="T6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>43483</v>
       </c>
       <c r="B7" s="2">
         <v>0.319444444444444</v>
       </c>
-      <c r="C7" t="s">
-        <v>87</v>
+      <c r="C7" t="b">
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>87</v>
@@ -3860,6 +3881,9 @@
       <c r="G7">
         <v>7</v>
       </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
       <c r="I7">
         <v>5</v>
       </c>
@@ -3871,6 +3895,12 @@
       </c>
       <c r="L7">
         <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -3885,23 +3915,134 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>97</v>
+      </c>
+      <c r="T7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>43484</v>
       </c>
+      <c r="B8" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
       <c r="S8" t="s">
+        <v>98</v>
+      </c>
+      <c r="T8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>43485</v>
       </c>
+      <c r="B9" s="2">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
       <c r="S9" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="T9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -3909,7 +4050,7 @@
         <v>43486</v>
       </c>
       <c r="S10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -3917,7 +4058,7 @@
         <v>43487</v>
       </c>
       <c r="S11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -3925,23 +4066,17 @@
         <v>43488</v>
       </c>
       <c r="S12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="1">
         <v>43489</v>
       </c>
-      <c r="S13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1">
         <v>43490</v>
-      </c>
-      <c r="S14" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -4021,14 +4156,30 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:19">
       <c r="B25" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="26" spans="2:2">
+      <c r="S25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19">
       <c r="B26" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="S26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="19:19">
+      <c r="S27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="19:19">
+      <c r="S28" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -4041,7 +4192,7 @@
         <v>43498</v>
       </c>
       <c r="S30" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -4049,7 +4200,7 @@
         <v>43499</v>
       </c>
       <c r="S31" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -4057,7 +4208,7 @@
         <v>43500</v>
       </c>
       <c r="S32" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -4065,7 +4216,7 @@
         <v>43501</v>
       </c>
       <c r="S33" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -4073,7 +4224,7 @@
         <v>43502</v>
       </c>
       <c r="S34" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -4081,7 +4232,7 @@
         <v>43503</v>
       </c>
       <c r="S35" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -4089,7 +4240,7 @@
         <v>43504</v>
       </c>
       <c r="S36" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -4097,7 +4248,7 @@
         <v>43505</v>
       </c>
       <c r="S37" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -4105,7 +4256,7 @@
         <v>43506</v>
       </c>
       <c r="S38" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -4113,7 +4264,7 @@
         <v>43507</v>
       </c>
       <c r="S39" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="1"/>
+    <workbookView windowWidth="27750" windowHeight="10875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
   <si>
     <t>Date</t>
   </si>
@@ -276,9 +276,6 @@
   </si>
   <si>
     <t>自律自重</t>
-  </si>
-  <si>
-    <t>TURE</t>
   </si>
   <si>
     <t>nagios文档整理（实验将被搁置准备全力学zabbix与openfalcon）</t>
@@ -396,8 +393,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -423,6 +420,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -438,7 +443,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,84 +543,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,37 +558,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,7 +582,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,43 +606,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,37 +636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,13 +660,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,7 +702,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,15 +749,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -779,17 +767,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,15 +787,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,6 +808,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -844,11 +826,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,145 +857,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3463,7 +3460,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3559,56 +3556,56 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
         <v>87</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>88</v>
-      </c>
-      <c r="T2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -3621,8 +3618,8 @@
       <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>87</v>
+      <c r="D3" t="b">
+        <v>1</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -3667,10 +3664,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
+        <v>89</v>
+      </c>
+      <c r="T3" t="s">
         <v>90</v>
-      </c>
-      <c r="T3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3683,8 +3680,8 @@
       <c r="C4" t="b">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>87</v>
+      <c r="D4" t="b">
+        <v>1</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -3729,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T4" t="s">
         <v>92</v>
-      </c>
-      <c r="T4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3745,8 +3742,8 @@
       <c r="C5" t="b">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>87</v>
+      <c r="D5" t="b">
+        <v>1</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -3791,10 +3788,10 @@
         <v>5</v>
       </c>
       <c r="S5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3807,8 +3804,8 @@
       <c r="C6" t="b">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>87</v>
+      <c r="D6" t="b">
+        <v>1</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -3853,10 +3850,10 @@
         <v>5</v>
       </c>
       <c r="S6" t="s">
+        <v>94</v>
+      </c>
+      <c r="T6" t="s">
         <v>95</v>
-      </c>
-      <c r="T6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -3869,8 +3866,8 @@
       <c r="C7" t="b">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>87</v>
+      <c r="D7" t="b">
+        <v>1</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -3915,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -3931,8 +3928,8 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>87</v>
+      <c r="D8" t="b">
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3977,10 +3974,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -3993,8 +3990,8 @@
       <c r="C9" t="b">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>87</v>
+      <c r="D9" t="b">
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4039,26 +4036,134 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>43486</v>
       </c>
+      <c r="B10" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
       <c r="S10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>99</v>
+      </c>
+      <c r="T10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>43487</v>
       </c>
+      <c r="B11" s="2">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
       <c r="S11" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="T11" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4066,7 +4171,7 @@
         <v>43488</v>
       </c>
       <c r="S12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -4084,7 +4189,7 @@
         <v>43491</v>
       </c>
       <c r="S15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -4092,7 +4197,7 @@
         <v>43492</v>
       </c>
       <c r="S16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -4100,7 +4205,7 @@
         <v>43493</v>
       </c>
       <c r="S17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -4108,7 +4213,7 @@
         <v>43494</v>
       </c>
       <c r="S18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -4116,7 +4221,7 @@
         <v>43495</v>
       </c>
       <c r="S19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -4124,62 +4229,62 @@
         <v>43496</v>
       </c>
       <c r="S20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="S21" t="s">
         <v>108</v>
-      </c>
-      <c r="S21" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="22" spans="2:19">
       <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="S22" t="s">
         <v>110</v>
-      </c>
-      <c r="S22" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="23" spans="2:19">
       <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="S23" t="s">
         <v>112</v>
-      </c>
-      <c r="S23" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="24" spans="19:19">
       <c r="S24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="2:19">
       <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="S25" t="s">
         <v>115</v>
-      </c>
-      <c r="S25" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="26" spans="2:19">
       <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="S26" t="s">
         <v>117</v>
-      </c>
-      <c r="S26" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="27" spans="19:19">
       <c r="S27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="19:19">
       <c r="S28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -4192,7 +4297,7 @@
         <v>43498</v>
       </c>
       <c r="S30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -4200,7 +4305,7 @@
         <v>43499</v>
       </c>
       <c r="S31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -4208,7 +4313,7 @@
         <v>43500</v>
       </c>
       <c r="S32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -4216,7 +4321,7 @@
         <v>43501</v>
       </c>
       <c r="S33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -4224,7 +4329,7 @@
         <v>43502</v>
       </c>
       <c r="S34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -4232,7 +4337,7 @@
         <v>43503</v>
       </c>
       <c r="S35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -4240,7 +4345,7 @@
         <v>43504</v>
       </c>
       <c r="S36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -4248,7 +4353,7 @@
         <v>43505</v>
       </c>
       <c r="S37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -4256,7 +4361,7 @@
         <v>43506</v>
       </c>
       <c r="S38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -4264,7 +4369,7 @@
         <v>43507</v>
       </c>
       <c r="S39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
   <si>
     <t>Date</t>
   </si>
@@ -320,58 +320,61 @@
     <t>03-实战dns 百度云下载</t>
   </si>
   <si>
+    <t>替换了C7的内容，但很不完善</t>
+  </si>
+  <si>
     <t>04-缓存篇</t>
   </si>
   <si>
+    <t>05-存储篇</t>
+  </si>
+  <si>
+    <t>06-SaltStack实战</t>
+  </si>
+  <si>
     <t>休息一天</t>
   </si>
   <si>
-    <t>05-存储篇</t>
-  </si>
-  <si>
-    <t>06-SaltStack实战</t>
-  </si>
-  <si>
     <t>07-SaltStack实战</t>
   </si>
   <si>
     <t>Day10-监控zabbix</t>
   </si>
   <si>
+    <t>Day11-监控zabbix</t>
+  </si>
+  <si>
+    <t>Day12-监控zabbix</t>
+  </si>
+  <si>
     <t>总结</t>
   </si>
   <si>
-    <t>Day11-监控zabbix</t>
+    <t>08-自动化监控Zabbix</t>
   </si>
   <si>
     <t>预搁置109-117</t>
   </si>
   <si>
-    <t>Day12-监控zabbix</t>
+    <t>09-自动化监控Zabbix</t>
   </si>
   <si>
     <t>由15-20，14-25，26代</t>
   </si>
   <si>
-    <t>08-自动化监控Zabbix</t>
-  </si>
-  <si>
-    <t>09-自动化监控Zabbix</t>
+    <t>10-Jenkins持续集成（需要14期java、tomcat笔记）</t>
+  </si>
+  <si>
+    <t>11-Jenkins持续集成</t>
   </si>
   <si>
     <t>春节在家可以做文档整理工作</t>
   </si>
   <si>
-    <t>10-Jenkins持续集成（需要14期java、tomcat笔记）</t>
+    <t>12-ELK日志收集</t>
   </si>
   <si>
     <t>整理架构师相关笔记</t>
-  </si>
-  <si>
-    <t>11-Jenkins持续集成</t>
-  </si>
-  <si>
-    <t>12-ELK日志收集</t>
   </si>
   <si>
     <t>13-ELK日志收集</t>
@@ -392,9 +395,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -420,14 +423,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -442,8 +437,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,7 +492,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,37 +509,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,6 +531,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -558,19 +561,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,31 +585,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,37 +639,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,19 +669,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,37 +741,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,75 +755,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -844,6 +782,71 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -860,7 +863,7 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -869,133 +872,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3460,7 +3463,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4166,22 +4169,82 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>43488</v>
       </c>
+      <c r="B12" s="2">
+        <v>0.326388888888889</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
       <c r="S12" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="T12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>43489</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="S13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>43490</v>
+      </c>
+      <c r="S14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -4189,7 +4252,7 @@
         <v>43491</v>
       </c>
       <c r="S15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -4197,7 +4260,7 @@
         <v>43492</v>
       </c>
       <c r="S16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -4205,7 +4268,7 @@
         <v>43493</v>
       </c>
       <c r="S17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -4213,7 +4276,7 @@
         <v>43494</v>
       </c>
       <c r="S18" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -4221,7 +4284,7 @@
         <v>43495</v>
       </c>
       <c r="S19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -4229,62 +4292,52 @@
         <v>43496</v>
       </c>
       <c r="S20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="S21" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="2:19">
       <c r="B22" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="S22" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="2:19">
       <c r="B23" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="S23" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="19:19">
       <c r="S24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="2:19">
       <c r="B25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="S25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="2:19">
       <c r="B26" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="19:19">
-      <c r="S27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="19:19">
-      <c r="S28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -4297,7 +4350,7 @@
         <v>43498</v>
       </c>
       <c r="S30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -4305,7 +4358,7 @@
         <v>43499</v>
       </c>
       <c r="S31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -4313,7 +4366,7 @@
         <v>43500</v>
       </c>
       <c r="S32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -4321,7 +4374,7 @@
         <v>43501</v>
       </c>
       <c r="S33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -4329,7 +4382,7 @@
         <v>43502</v>
       </c>
       <c r="S34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -4337,7 +4390,7 @@
         <v>43503</v>
       </c>
       <c r="S35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -4345,7 +4398,7 @@
         <v>43504</v>
       </c>
       <c r="S36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -4353,7 +4406,7 @@
         <v>43505</v>
       </c>
       <c r="S37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -4361,7 +4414,7 @@
         <v>43506</v>
       </c>
       <c r="S38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -4369,7 +4422,7 @@
         <v>43507</v>
       </c>
       <c r="S39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27750" windowHeight="10875" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
   <si>
     <t>Date</t>
   </si>
@@ -323,16 +323,19 @@
     <t>替换了C7的内容，但很不完善</t>
   </si>
   <si>
-    <t>04-缓存篇</t>
-  </si>
-  <si>
-    <t>05-存储篇</t>
-  </si>
-  <si>
-    <t>06-SaltStack实战</t>
-  </si>
-  <si>
-    <t>休息一天</t>
+    <t>04-缓存篇、05-存储篇</t>
+  </si>
+  <si>
+    <t>由于课内提供了 缓存实验 4个存储实验 但作为课后作业 我目前不准备自己独自进行研究</t>
+  </si>
+  <si>
+    <t>系统自动化安装kickstart</t>
+  </si>
+  <si>
+    <t>Cobbler自动化安装</t>
+  </si>
+  <si>
+    <t>休息一天 06-SaltStack实战</t>
   </si>
   <si>
     <t>07-SaltStack实战</t>
@@ -378,6 +381,12 @@
   </si>
   <si>
     <t>13-ELK日志收集</t>
+  </si>
+  <si>
+    <t>马士兵Java编程、蚂蚁架构师2017（有文档与源码） 尚学堂2017架构师 不知道如何学习java技术栈</t>
+  </si>
+  <si>
+    <t>已增加2019大纲</t>
   </si>
   <si>
     <t>上班、考虑把系统都拷贝到新大块1T硬盘</t>
@@ -394,10 +403,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -409,12 +418,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -422,16 +476,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,21 +509,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -476,17 +516,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -513,44 +560,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -561,7 +570,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,43 +654,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,13 +666,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,13 +720,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,79 +732,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,6 +745,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,7 +767,57 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -788,36 +847,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -832,26 +861,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -860,10 +869,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -872,133 +881,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3463,7 +3472,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4231,12 +4240,66 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>43489</v>
       </c>
+      <c r="B13" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
       <c r="S13" t="s">
         <v>102</v>
+      </c>
+      <c r="T13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -4244,7 +4307,7 @@
         <v>43490</v>
       </c>
       <c r="S14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -4252,7 +4315,7 @@
         <v>43491</v>
       </c>
       <c r="S15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -4260,7 +4323,7 @@
         <v>43492</v>
       </c>
       <c r="S16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -4268,7 +4331,7 @@
         <v>43493</v>
       </c>
       <c r="S17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -4276,7 +4339,7 @@
         <v>43494</v>
       </c>
       <c r="S18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -4284,7 +4347,7 @@
         <v>43495</v>
       </c>
       <c r="S19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -4292,52 +4355,62 @@
         <v>43496</v>
       </c>
       <c r="S20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:19">
       <c r="B22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="2:19">
       <c r="B23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="S23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="19:19">
       <c r="S24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="2:19">
       <c r="B25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="S25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="2:19">
       <c r="B26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S26" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -4350,7 +4423,7 @@
         <v>43498</v>
       </c>
       <c r="S30" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -4358,7 +4431,7 @@
         <v>43499</v>
       </c>
       <c r="S31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -4366,7 +4439,7 @@
         <v>43500</v>
       </c>
       <c r="S32" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -4374,7 +4447,7 @@
         <v>43501</v>
       </c>
       <c r="S33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -4382,7 +4455,7 @@
         <v>43502</v>
       </c>
       <c r="S34" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -4390,7 +4463,7 @@
         <v>43503</v>
       </c>
       <c r="S35" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -4398,7 +4471,7 @@
         <v>43504</v>
       </c>
       <c r="S36" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -4406,7 +4479,7 @@
         <v>43505</v>
       </c>
       <c r="S37" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -4414,7 +4487,7 @@
         <v>43506</v>
       </c>
       <c r="S38" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -4422,7 +4495,7 @@
         <v>43507</v>
       </c>
       <c r="S39" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -403,10 +403,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -424,8 +424,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,7 +456,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,7 +494,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,7 +532,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,70 +554,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,103 +570,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,7 +600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +612,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,49 +726,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,15 +761,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -797,47 +788,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -861,6 +811,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -869,145 +869,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1342,8 +1342,8 @@
   <sheetPr/>
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3457,7 +3457,7 @@
         <v>78</v>
       </c>
       <c r="N59" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3472,7 +3472,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4302,12 +4302,66 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>43490</v>
       </c>
+      <c r="B14" s="2">
+        <v>0.319444444444444</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
       <c r="S14" t="s">
         <v>104</v>
+      </c>
+      <c r="T14" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:19">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="1"/>
+    <workbookView windowWidth="26760" windowHeight="10170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
   <si>
     <t>Date</t>
   </si>
@@ -329,64 +329,70 @@
     <t>由于课内提供了 缓存实验 4个存储实验 但作为课后作业 我目前不准备自己独自进行研究</t>
   </si>
   <si>
-    <t>系统自动化安装kickstart</t>
-  </si>
-  <si>
-    <t>Cobbler自动化安装</t>
-  </si>
-  <si>
-    <t>休息一天 06-SaltStack实战</t>
-  </si>
-  <si>
-    <t>07-SaltStack实战</t>
+    <t>系统自动化安装kickstart（最好学过rpm制作，yum仓库搭建）</t>
+  </si>
+  <si>
+    <t>Cobbler自动化安装（前身是kickstart）</t>
+  </si>
+  <si>
+    <t>仅做了文档</t>
+  </si>
+  <si>
+    <t>休息一天</t>
+  </si>
+  <si>
+    <t>06-SaltStack实战（最好之前学过Cobbler）</t>
+  </si>
+  <si>
+    <t>07-SaltStack实战（中等企业ansible使用容易）</t>
   </si>
   <si>
     <t>Day10-监控zabbix</t>
   </si>
   <si>
+    <t>总结</t>
+  </si>
+  <si>
     <t>Day11-监控zabbix</t>
   </si>
   <si>
+    <t>预搁置109-117</t>
+  </si>
+  <si>
     <t>Day12-监控zabbix</t>
   </si>
   <si>
-    <t>总结</t>
+    <t>由15-20，14-25，26代</t>
   </si>
   <si>
     <t>08-自动化监控Zabbix</t>
   </si>
   <si>
-    <t>预搁置109-117</t>
-  </si>
-  <si>
     <t>09-自动化监控Zabbix</t>
   </si>
   <si>
-    <t>由15-20，14-25，26代</t>
-  </si>
-  <si>
-    <t>10-Jenkins持续集成（需要14期java、tomcat笔记）</t>
+    <t>春节在家可以做文档整理工作</t>
+  </si>
+  <si>
+    <t>10-Jenkins持续集成（需要14期java、tomcat笔记）依赖Docker</t>
+  </si>
+  <si>
+    <t>整理架构师相关笔记</t>
   </si>
   <si>
     <t>11-Jenkins持续集成</t>
   </si>
   <si>
-    <t>春节在家可以做文档整理工作</t>
+    <t>马士兵Java编程、蚂蚁架构师2017（有文档与源码） 尚学堂2017架构师 不知道如何学习java技术栈</t>
   </si>
   <si>
     <t>12-ELK日志收集</t>
   </si>
   <si>
-    <t>整理架构师相关笔记</t>
+    <t>已增加2019大纲</t>
   </si>
   <si>
     <t>13-ELK日志收集</t>
-  </si>
-  <si>
-    <t>马士兵Java编程、蚂蚁架构师2017（有文档与源码） 尚学堂2017架构师 不知道如何学习java技术栈</t>
-  </si>
-  <si>
-    <t>已增加2019大纲</t>
   </si>
   <si>
     <t>上班、考虑把系统都拷贝到新大块1T硬盘</t>
@@ -403,10 +409,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -417,16 +423,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,17 +463,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -469,9 +490,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,59 +500,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,8 +521,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,7 +576,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,103 +606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +630,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,19 +660,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,25 +732,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,21 +770,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -788,11 +779,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,17 +829,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,15 +867,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -869,10 +875,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,133 +887,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3472,7 +3478,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4364,28 +4370,130 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>43491</v>
       </c>
+      <c r="B15" s="2">
+        <v>0.345138888888889</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>30</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
       <c r="S15" t="s">
         <v>105</v>
+      </c>
+      <c r="T15" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>43492</v>
       </c>
+      <c r="B16" s="2">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
       <c r="S16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1">
         <v>43493</v>
-      </c>
-      <c r="S17" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -4457,14 +4565,20 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:19">
       <c r="B27" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="28" spans="2:2">
+      <c r="S27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19">
       <c r="B28" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="S28" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -4477,7 +4591,7 @@
         <v>43498</v>
       </c>
       <c r="S30" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -4485,7 +4599,7 @@
         <v>43499</v>
       </c>
       <c r="S31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -4493,7 +4607,7 @@
         <v>43500</v>
       </c>
       <c r="S32" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -4501,7 +4615,7 @@
         <v>43501</v>
       </c>
       <c r="S33" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -4509,7 +4623,7 @@
         <v>43502</v>
       </c>
       <c r="S34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -4517,7 +4631,7 @@
         <v>43503</v>
       </c>
       <c r="S35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -4525,7 +4639,7 @@
         <v>43504</v>
       </c>
       <c r="S36" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -4533,7 +4647,7 @@
         <v>43505</v>
       </c>
       <c r="S37" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -4541,7 +4655,7 @@
         <v>43506</v>
       </c>
       <c r="S38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -4549,7 +4663,7 @@
         <v>43507</v>
       </c>
       <c r="S39" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26760" windowHeight="10170" activeTab="1"/>
+    <workbookView windowWidth="24690" windowHeight="10395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
   <si>
     <t>Date</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>休息一天</t>
+  </si>
+  <si>
+    <t>14-09-CentOS6、7对比</t>
   </si>
   <si>
     <t>06-SaltStack实战（最好之前学过Cobbler）</t>
@@ -409,10 +412,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -423,25 +426,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,14 +456,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,23 +469,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,16 +493,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,18 +554,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -576,6 +579,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -588,49 +663,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,7 +711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,19 +729,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,79 +753,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,6 +782,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -796,9 +823,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,41 +847,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -867,6 +861,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -875,10 +878,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -887,133 +890,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3477,8 +3480,8 @@
   <sheetPr/>
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4491,17 +4494,122 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>43493</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>43494</v>
       </c>
+      <c r="B18" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
       <c r="S18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -4509,7 +4617,7 @@
         <v>43495</v>
       </c>
       <c r="S19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -4517,68 +4625,68 @@
         <v>43496</v>
       </c>
       <c r="S20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="2:19">
       <c r="B22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="S22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="2:19">
       <c r="B23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="19:19">
       <c r="S24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="2:19">
       <c r="B25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="S25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="2:19">
       <c r="B26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="2:19">
       <c r="B27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="2:19">
       <c r="B28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="S28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -4591,7 +4699,7 @@
         <v>43498</v>
       </c>
       <c r="S30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -4599,7 +4707,7 @@
         <v>43499</v>
       </c>
       <c r="S31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -4607,7 +4715,7 @@
         <v>43500</v>
       </c>
       <c r="S32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -4615,7 +4723,7 @@
         <v>43501</v>
       </c>
       <c r="S33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -4623,7 +4731,7 @@
         <v>43502</v>
       </c>
       <c r="S34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -4631,7 +4739,7 @@
         <v>43503</v>
       </c>
       <c r="S35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -4639,7 +4747,7 @@
         <v>43504</v>
       </c>
       <c r="S36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -4647,7 +4755,7 @@
         <v>43505</v>
       </c>
       <c r="S37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -4655,7 +4763,7 @@
         <v>43506</v>
       </c>
       <c r="S38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -4663,7 +4771,7 @@
         <v>43507</v>
       </c>
       <c r="S39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:1">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24690" windowHeight="10395" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -350,49 +350,49 @@
     <t>07-SaltStack实战（中等企业ansible使用容易）</t>
   </si>
   <si>
+    <t>总结</t>
+  </si>
+  <si>
     <t>Day10-监控zabbix</t>
   </si>
   <si>
-    <t>总结</t>
+    <t>预搁置109-117</t>
   </si>
   <si>
     <t>Day11-监控zabbix</t>
   </si>
   <si>
-    <t>预搁置109-117</t>
+    <t>由15-20，14-25，26代</t>
   </si>
   <si>
     <t>Day12-监控zabbix</t>
   </si>
   <si>
-    <t>由15-20，14-25，26代</t>
-  </si>
-  <si>
     <t>08-自动化监控Zabbix</t>
   </si>
   <si>
+    <t>春节在家可以做文档整理工作</t>
+  </si>
+  <si>
     <t>09-自动化监控Zabbix</t>
   </si>
   <si>
-    <t>春节在家可以做文档整理工作</t>
+    <t>整理架构师相关笔记</t>
   </si>
   <si>
     <t>10-Jenkins持续集成（需要14期java、tomcat笔记）依赖Docker</t>
   </si>
   <si>
-    <t>整理架构师相关笔记</t>
+    <t>马士兵Java编程、蚂蚁架构师2017（有文档与源码） 尚学堂2017架构师 不知道如何学习java技术栈</t>
   </si>
   <si>
     <t>11-Jenkins持续集成</t>
   </si>
   <si>
-    <t>马士兵Java编程、蚂蚁架构师2017（有文档与源码） 尚学堂2017架构师 不知道如何学习java技术栈</t>
+    <t>已增加2019大纲</t>
   </si>
   <si>
     <t>12-ELK日志收集</t>
-  </si>
-  <si>
-    <t>已增加2019大纲</t>
   </si>
   <si>
     <t>13-ELK日志收集</t>
@@ -412,10 +412,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -441,17 +441,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -463,23 +464,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,31 +478,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,6 +509,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -561,14 +569,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -579,7 +579,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,37 +657,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,43 +723,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,61 +747,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,13 +759,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,11 +773,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,8 +791,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,6 +808,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,32 +853,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,10 +878,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -890,133 +890,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3480,8 +3480,8 @@
   <sheetPr/>
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21:S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4616,82 +4616,136 @@
       <c r="A19" s="1">
         <v>43495</v>
       </c>
+      <c r="B19" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
       <c r="S19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>43496</v>
       </c>
-      <c r="S20" t="s">
-        <v>111</v>
+      <c r="D20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="S21" t="s">
         <v>112</v>
-      </c>
-      <c r="S21" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="22" spans="2:19">
       <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="S22" t="s">
         <v>114</v>
-      </c>
-      <c r="S22" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="23" spans="2:19">
       <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="S23" t="s">
         <v>116</v>
-      </c>
-      <c r="S23" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="24" spans="19:19">
       <c r="S24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="2:19">
       <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="S25" t="s">
         <v>119</v>
-      </c>
-      <c r="S25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="2:19">
       <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="S26" t="s">
         <v>121</v>
-      </c>
-      <c r="S26" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="27" spans="2:19">
       <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="S27" t="s">
         <v>123</v>
-      </c>
-      <c r="S27" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="28" spans="2:19">
       <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="S28" t="s">
         <v>125</v>
       </c>
-      <c r="S28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="1">
         <v>43497</v>
+      </c>
+      <c r="S29" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:19">

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="1"/>
+    <workbookView windowWidth="18075" windowHeight="10395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
   <si>
     <t>Date</t>
   </si>
@@ -347,64 +347,100 @@
     <t>06-SaltStack实战（最好之前学过Cobbler）</t>
   </si>
   <si>
+    <t>06-SaltStack实战</t>
+  </si>
+  <si>
     <t>07-SaltStack实战（中等企业ansible使用容易）</t>
   </si>
   <si>
     <t>总结</t>
   </si>
   <si>
+    <t>预搁置109-117</t>
+  </si>
+  <si>
+    <t>由15-20，14-25，26代</t>
+  </si>
+  <si>
+    <t>春节在家可以做文档整理工作</t>
+  </si>
+  <si>
+    <t>整理架构师相关笔记</t>
+  </si>
+  <si>
+    <t>马士兵Java编程、蚂蚁架构师2017（有文档与源码） 尚学堂2017架构师 不知道如何学习java技术栈</t>
+  </si>
+  <si>
+    <t>已增加2019大纲</t>
+  </si>
+  <si>
+    <t>晚上收拾东西 准备衣服等 07-SaltStack实战-10 11 12</t>
+  </si>
+  <si>
+    <t>还需要接入14期15 16的saltstack内容</t>
+  </si>
+  <si>
+    <t>上班、考虑把系统都拷贝到新大块1T硬盘</t>
+  </si>
+  <si>
+    <t>休假</t>
+  </si>
+  <si>
+    <t>春节</t>
+  </si>
+  <si>
+    <t>15-saltstack</t>
+  </si>
+  <si>
+    <t>16-saltstack</t>
+  </si>
+  <si>
     <t>Day10-监控zabbix</t>
   </si>
   <si>
-    <t>预搁置109-117</t>
-  </si>
-  <si>
     <t>Day11-监控zabbix</t>
   </si>
   <si>
-    <t>由15-20，14-25，26代</t>
-  </si>
-  <si>
     <t>Day12-监控zabbix</t>
   </si>
   <si>
     <t>08-自动化监控Zabbix</t>
   </si>
   <si>
-    <t>春节在家可以做文档整理工作</t>
-  </si>
-  <si>
     <t>09-自动化监控Zabbix</t>
   </si>
   <si>
-    <t>整理架构师相关笔记</t>
-  </si>
-  <si>
     <t>10-Jenkins持续集成（需要14期java、tomcat笔记）依赖Docker</t>
   </si>
   <si>
-    <t>马士兵Java编程、蚂蚁架构师2017（有文档与源码） 尚学堂2017架构师 不知道如何学习java技术栈</t>
-  </si>
-  <si>
     <t>11-Jenkins持续集成</t>
   </si>
   <si>
-    <t>已增加2019大纲</t>
-  </si>
-  <si>
     <t>12-ELK日志收集</t>
   </si>
   <si>
     <t>13-ELK日志收集</t>
   </si>
   <si>
-    <t>上班、考虑把系统都拷贝到新大块1T硬盘</t>
-  </si>
-  <si>
-    <t>休假</t>
-  </si>
-  <si>
-    <t>春节</t>
+    <t>14-Openstack</t>
+  </si>
+  <si>
+    <t>15-Openstack</t>
+  </si>
+  <si>
+    <t>16-Openstack</t>
+  </si>
+  <si>
+    <t>17-Docker</t>
+  </si>
+  <si>
+    <t>18-K8s</t>
+  </si>
+  <si>
+    <t>19-Hadoop</t>
+  </si>
+  <si>
+    <t>20-总结</t>
   </si>
 </sst>
 </file>
@@ -412,10 +448,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -433,16 +469,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,36 +496,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -502,6 +515,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -509,8 +545,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,31 +561,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,11 +584,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -579,7 +615,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,7 +627,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,13 +723,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,19 +741,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,121 +789,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,6 +806,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -792,6 +852,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -812,47 +898,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -861,15 +906,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -878,10 +914,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -893,130 +929,130 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3480,8 +3516,8 @@
   <sheetPr/>
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21:S29"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="S54" sqref="S54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4671,81 +4707,109 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>43496</v>
       </c>
+      <c r="B20" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>5</v>
+      </c>
+      <c r="R20">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>111</v>
-      </c>
-      <c r="S21" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="2:19">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>113</v>
       </c>
-      <c r="S22" t="s">
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="2:19">
-      <c r="B23" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
         <v>115</v>
       </c>
-      <c r="S23" t="s">
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="19:19">
-      <c r="S24" t="s">
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="2:19">
-      <c r="B25" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
         <v>118</v>
       </c>
-      <c r="S25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19">
-      <c r="B26" t="s">
-        <v>120</v>
-      </c>
-      <c r="S26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19">
-      <c r="B27" t="s">
-        <v>122</v>
-      </c>
-      <c r="S27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19">
-      <c r="B28" t="s">
-        <v>124</v>
-      </c>
-      <c r="S28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="1">
         <v>43497</v>
       </c>
       <c r="S29" t="s">
-        <v>126</v>
+        <v>119</v>
+      </c>
+      <c r="T29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -4753,7 +4817,7 @@
         <v>43498</v>
       </c>
       <c r="S30" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -4761,7 +4825,7 @@
         <v>43499</v>
       </c>
       <c r="S31" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -4769,7 +4833,7 @@
         <v>43500</v>
       </c>
       <c r="S32" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -4777,7 +4841,7 @@
         <v>43501</v>
       </c>
       <c r="S33" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -4785,7 +4849,7 @@
         <v>43502</v>
       </c>
       <c r="S34" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -4793,7 +4857,7 @@
         <v>43503</v>
       </c>
       <c r="S35" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -4801,7 +4865,7 @@
         <v>43504</v>
       </c>
       <c r="S36" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -4809,7 +4873,7 @@
         <v>43505</v>
       </c>
       <c r="S37" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -4817,7 +4881,7 @@
         <v>43506</v>
       </c>
       <c r="S38" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -4825,96 +4889,150 @@
         <v>43507</v>
       </c>
       <c r="S39" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="1">
         <v>43508</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="S40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="1">
         <v>43509</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="S41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="1">
         <v>43510</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="S42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="1">
         <v>43511</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="S43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="1">
         <v>43512</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="S44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="1">
         <v>43513</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="S45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="1">
         <v>43514</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="S46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="1">
         <v>43515</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="S47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="1">
         <v>43516</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="S48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="1">
         <v>43517</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="S49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="1">
         <v>43518</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="S50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="1">
         <v>43519</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="S51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="1">
         <v>43520</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="S52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="1">
         <v>43521</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="S53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="1">
         <v>43522</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="S54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="1">
         <v>43523</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="S55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="1">
         <v>43524</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="S56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="1"/>
+      <c r="S57" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1"/>

--- a/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
+++ b/做人做事奋斗成长经验/每日学习成绩 量化考核评定.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18075" windowHeight="10395" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="每日学习成绩 量化考核评定" sheetId="1" r:id="rId1"/>
     <sheet name="每日学习成绩 量化考核评定V2.0" sheetId="2" r:id="rId2"/>
+    <sheet name="每日学习成绩 量化考核评定V2.0 2019下半年" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
   <si>
     <t>Date</t>
   </si>
@@ -401,6 +402,9 @@
     <t>Day11-监控zabbix</t>
   </si>
   <si>
+    <t>回家 放3paper，吃饭</t>
+  </si>
+  <si>
     <t>Day12-监控zabbix</t>
   </si>
   <si>
@@ -441,6 +445,15 @@
   </si>
   <si>
     <t>20-总结</t>
+  </si>
+  <si>
+    <t>思考</t>
+  </si>
+  <si>
+    <t>是否需要去北京学习新技术？学新技术在企业中能不能应用？</t>
+  </si>
+  <si>
+    <t>是否需要去杭州发展？杭州的发展规划是怎样的？</t>
   </si>
 </sst>
 </file>
@@ -448,10 +461,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -459,6 +472,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -485,69 +505,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,9 +535,57 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -591,16 +604,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,13 +628,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,25 +718,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,13 +730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,43 +742,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,31 +754,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,19 +772,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,7 +808,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,6 +827,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,21 +909,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -879,30 +916,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,10 +927,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -926,133 +939,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fon